--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-462418.9695974076</v>
+        <v>-464879.8858158498</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>337.3698596490252</v>
+        <v>337.3698596490253</v>
       </c>
       <c r="C11" t="n">
         <v>319.9089097565522</v>
       </c>
       <c r="D11" t="n">
-        <v>309.3190596062276</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>336.5663880578064</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>361.5120637272561</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>365.8119104385899</v>
       </c>
       <c r="H11" t="n">
-        <v>251.8467681091841</v>
+        <v>251.8467681091842</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>6.011713299731461</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>61.67501480176773</v>
+        <v>69.61560571941746</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>159.6666032903777</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>205.651523288414</v>
       </c>
       <c r="V11" t="n">
-        <v>282.3882764556795</v>
+        <v>282.3882764556796</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>303.8769867029577</v>
       </c>
       <c r="X11" t="n">
-        <v>324.3671186640137</v>
+        <v>282.8053021175849</v>
       </c>
       <c r="Y11" t="n">
-        <v>340.8739566415982</v>
+        <v>340.8739566415983</v>
       </c>
     </row>
     <row r="12">
@@ -1449,19 +1449,19 @@
         <v>121.169201635412</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>127.3445169738604</v>
       </c>
       <c r="D12" t="n">
-        <v>102.0810835501834</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>99.70523037892858</v>
       </c>
       <c r="G12" t="n">
-        <v>135.1354603924896</v>
+        <v>89.77147837803433</v>
       </c>
       <c r="H12" t="n">
         <v>90.91026437190153</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>8.586294988847726</v>
       </c>
       <c r="S12" t="n">
-        <v>85.30550301919197</v>
+        <v>130.6694850336473</v>
       </c>
       <c r="T12" t="n">
         <v>191.2647103952927</v>
       </c>
       <c r="U12" t="n">
-        <v>180.4321331737089</v>
+        <v>225.7961151881642</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1515,7 +1515,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>195.8976129225047</v>
+        <v>187.3113179336579</v>
       </c>
     </row>
     <row r="13">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134.4679981674819</v>
+        <v>134.467998167482</v>
       </c>
       <c r="C13" t="n">
         <v>121.8828390841725</v>
       </c>
       <c r="D13" t="n">
-        <v>103.251491003757</v>
+        <v>103.2514910037571</v>
       </c>
       <c r="E13" t="n">
-        <v>101.0699806321138</v>
+        <v>101.0699806321139</v>
       </c>
       <c r="F13" t="n">
         <v>100.0570660084759</v>
       </c>
       <c r="G13" t="n">
-        <v>62.53669160282364</v>
+        <v>13.84219534957954</v>
       </c>
       <c r="H13" t="n">
-        <v>100.4046896799913</v>
+        <v>100.4046896799914</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>48.69449625324314</v>
       </c>
       <c r="S13" t="n">
         <v>146.3919349810984</v>
@@ -1582,19 +1582,19 @@
         <v>174.6721029331445</v>
       </c>
       <c r="U13" t="n">
-        <v>240.8540749444098</v>
+        <v>240.8540749444099</v>
       </c>
       <c r="V13" t="n">
-        <v>206.7736613093726</v>
+        <v>206.7736613093727</v>
       </c>
       <c r="W13" t="n">
-        <v>241.1590163221356</v>
+        <v>241.1590163221357</v>
       </c>
       <c r="X13" t="n">
         <v>180.3456733745818</v>
       </c>
       <c r="Y13" t="n">
-        <v>173.2206713376394</v>
+        <v>173.2206713376395</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>337.3698596490252</v>
+        <v>337.3698596490254</v>
       </c>
       <c r="C14" t="n">
-        <v>319.9089097565522</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>336.5663880578064</v>
+        <v>336.5663880578066</v>
       </c>
       <c r="F14" t="n">
-        <v>361.5120637272561</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>89.71523210043232</v>
+        <v>365.81191043859</v>
       </c>
       <c r="H14" t="n">
-        <v>251.8467681091841</v>
+        <v>193.6274732615034</v>
       </c>
       <c r="I14" t="n">
-        <v>6.011713299731461</v>
+        <v>6.011713299731603</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>69.61560571941743</v>
+        <v>69.61560571941757</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>159.6666032903779</v>
       </c>
       <c r="U14" t="n">
-        <v>205.651523288414</v>
+        <v>205.6515232884141</v>
       </c>
       <c r="V14" t="n">
-        <v>282.3882764556795</v>
+        <v>282.3882764556797</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>303.8769867029578</v>
       </c>
       <c r="X14" t="n">
-        <v>324.3671186640137</v>
+        <v>324.3671186640138</v>
       </c>
       <c r="Y14" t="n">
-        <v>340.8739566415982</v>
+        <v>340.8739566415984</v>
       </c>
     </row>
     <row r="15">
@@ -1686,25 +1686,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>127.3445169738606</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>112.2810984409458</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>99.70523037892869</v>
       </c>
       <c r="G15" t="n">
-        <v>89.77147837803427</v>
+        <v>135.1354603924896</v>
       </c>
       <c r="H15" t="n">
-        <v>45.54628235744616</v>
+        <v>90.91026437190153</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.49937276245677</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>8.586294988847783</v>
+        <v>8.586294988847754</v>
       </c>
       <c r="S15" t="n">
-        <v>85.30550301919197</v>
+        <v>130.6694850336473</v>
       </c>
       <c r="T15" t="n">
         <v>191.2647103952927</v>
       </c>
       <c r="U15" t="n">
-        <v>207.4247373445168</v>
+        <v>225.7961151881642</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1749,10 +1749,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>160.4090031890221</v>
+        <v>160.4090031890223</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>163.8119451712001</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>134.4679981674821</v>
       </c>
       <c r="C16" t="n">
-        <v>121.8828390841725</v>
+        <v>121.8828390841726</v>
       </c>
       <c r="D16" t="n">
-        <v>76.36880344479964</v>
+        <v>103.2514910037572</v>
       </c>
       <c r="E16" t="n">
-        <v>101.0699806321138</v>
+        <v>101.069980632114</v>
       </c>
       <c r="F16" t="n">
-        <v>100.0570660084759</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>120.7758367208652</v>
+        <v>113.8992613580533</v>
       </c>
       <c r="H16" t="n">
-        <v>100.4046896799913</v>
+        <v>100.4046896799915</v>
       </c>
       <c r="I16" t="n">
-        <v>54.41704435515427</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.69449625324312</v>
+        <v>48.69449625324328</v>
       </c>
       <c r="S16" t="n">
-        <v>146.3919349810984</v>
+        <v>146.3919349810986</v>
       </c>
       <c r="T16" t="n">
-        <v>174.6721029331445</v>
+        <v>174.6721029331447</v>
       </c>
       <c r="U16" t="n">
-        <v>240.8540749444098</v>
+        <v>240.85407494441</v>
       </c>
       <c r="V16" t="n">
-        <v>206.7736613093726</v>
+        <v>206.7736613093728</v>
       </c>
       <c r="W16" t="n">
-        <v>241.1590163221356</v>
+        <v>241.1590163221358</v>
       </c>
       <c r="X16" t="n">
-        <v>180.3456733745818</v>
+        <v>180.345673374582</v>
       </c>
       <c r="Y16" t="n">
-        <v>173.2206713376394</v>
+        <v>173.2206713376396</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>290.3947230304326</v>
+        <v>290.3947230304327</v>
       </c>
       <c r="C17" t="n">
-        <v>149.9819941479051</v>
+        <v>272.9337731379597</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>262.3439229876351</v>
       </c>
       <c r="E17" t="n">
-        <v>289.5912514392138</v>
+        <v>289.5912514392139</v>
       </c>
       <c r="F17" t="n">
-        <v>314.5369271086635</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>318.8367738199972</v>
+        <v>248.0779989509685</v>
       </c>
       <c r="H17" t="n">
-        <v>204.8716314905915</v>
+        <v>204.8716314905916</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>22.64046910082486</v>
+        <v>22.6404691008249</v>
       </c>
       <c r="T17" t="n">
-        <v>112.6914666717851</v>
+        <v>112.6914666717852</v>
       </c>
       <c r="U17" t="n">
-        <v>158.6763866698214</v>
+        <v>158.6763866698215</v>
       </c>
       <c r="V17" t="n">
         <v>235.413139837087</v>
       </c>
       <c r="W17" t="n">
-        <v>256.901850084365</v>
+        <v>256.9018500843652</v>
       </c>
       <c r="X17" t="n">
-        <v>277.3919820454211</v>
+        <v>277.3919820454212</v>
       </c>
       <c r="Y17" t="n">
         <v>293.8988200230057</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>74.19406501681947</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1932,16 +1932,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>128.4912894968643</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>42.79634175944169</v>
+        <v>42.79634175944176</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>90.91026437190153</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.49937276245677</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.586294988847783</v>
+        <v>8.586294988847754</v>
       </c>
       <c r="S18" t="n">
         <v>130.6694850336473</v>
@@ -1986,7 +1986,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>167.1245438056485</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>87.49286154888935</v>
+        <v>87.49286154888942</v>
       </c>
       <c r="C19" t="n">
-        <v>74.90770246557989</v>
+        <v>74.90770246557996</v>
       </c>
       <c r="D19" t="n">
-        <v>56.27635438516441</v>
+        <v>56.27635438516448</v>
       </c>
       <c r="E19" t="n">
-        <v>54.09484401352123</v>
+        <v>54.0948440135213</v>
       </c>
       <c r="F19" t="n">
-        <v>53.0819293898833</v>
+        <v>53.08192938988337</v>
       </c>
       <c r="G19" t="n">
-        <v>73.80070010227256</v>
+        <v>73.80070010227263</v>
       </c>
       <c r="H19" t="n">
-        <v>53.42955306139876</v>
+        <v>53.42955306139883</v>
       </c>
       <c r="I19" t="n">
-        <v>7.441907736561696</v>
+        <v>7.441907736561753</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.719359634650544</v>
+        <v>1.719359634650601</v>
       </c>
       <c r="S19" t="n">
-        <v>99.41679836250582</v>
+        <v>99.41679836250589</v>
       </c>
       <c r="T19" t="n">
-        <v>127.6969663145519</v>
+        <v>127.696966314552</v>
       </c>
       <c r="U19" t="n">
-        <v>193.8789383258172</v>
+        <v>193.8789383258173</v>
       </c>
       <c r="V19" t="n">
         <v>159.7985246907801</v>
@@ -2065,10 +2065,10 @@
         <v>194.1838797035431</v>
       </c>
       <c r="X19" t="n">
-        <v>133.3705367559892</v>
+        <v>133.3705367559893</v>
       </c>
       <c r="Y19" t="n">
-        <v>126.2455347190468</v>
+        <v>126.2455347190469</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>290.3947230304326</v>
+        <v>290.3947230304327</v>
       </c>
       <c r="C20" t="n">
-        <v>272.9337731379596</v>
+        <v>272.9337731379597</v>
       </c>
       <c r="D20" t="n">
-        <v>262.343922987635</v>
+        <v>262.3439229876351</v>
       </c>
       <c r="E20" t="n">
-        <v>289.5912514392138</v>
+        <v>289.5912514392139</v>
       </c>
       <c r="F20" t="n">
-        <v>314.5369271086635</v>
+        <v>134.1128566215629</v>
       </c>
       <c r="G20" t="n">
-        <v>318.8367738199972</v>
+        <v>318.8367738199973</v>
       </c>
       <c r="H20" t="n">
-        <v>204.8716314905915</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>22.64046910082486</v>
+        <v>22.64046910082489</v>
       </c>
       <c r="T20" t="n">
-        <v>112.6914666717851</v>
+        <v>112.6914666717852</v>
       </c>
       <c r="U20" t="n">
-        <v>158.6763866698214</v>
+        <v>158.6763866698215</v>
       </c>
       <c r="V20" t="n">
-        <v>107.0192879437595</v>
+        <v>235.413139837087</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>256.9018500843652</v>
       </c>
       <c r="X20" t="n">
-        <v>277.3919820454211</v>
+        <v>277.3919820454212</v>
       </c>
       <c r="Y20" t="n">
         <v>293.8988200230057</v>
@@ -2163,22 +2163,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>107.3677699056637</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>137.0775844857121</v>
+        <v>52.730093760336</v>
       </c>
       <c r="G21" t="n">
-        <v>42.79634175944169</v>
+        <v>135.1354603924896</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.49937276245676</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>8.586294988847726</v>
       </c>
       <c r="S21" t="n">
         <v>130.6694850336473</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>87.49286154888935</v>
+        <v>87.49286154888942</v>
       </c>
       <c r="C22" t="n">
-        <v>74.90770246557989</v>
+        <v>74.90770246557996</v>
       </c>
       <c r="D22" t="n">
-        <v>56.27635438516441</v>
+        <v>56.27635438516448</v>
       </c>
       <c r="E22" t="n">
-        <v>54.09484401352123</v>
+        <v>54.0948440135213</v>
       </c>
       <c r="F22" t="n">
-        <v>53.0819293898833</v>
+        <v>53.08192938988337</v>
       </c>
       <c r="G22" t="n">
-        <v>73.80070010227256</v>
+        <v>73.80070010227263</v>
       </c>
       <c r="H22" t="n">
-        <v>53.42955306139876</v>
+        <v>53.42955306139883</v>
       </c>
       <c r="I22" t="n">
-        <v>7.441907736561696</v>
+        <v>7.441907736561738</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.719359634650544</v>
+        <v>1.719359634650573</v>
       </c>
       <c r="S22" t="n">
-        <v>99.41679836250582</v>
+        <v>99.41679836250589</v>
       </c>
       <c r="T22" t="n">
-        <v>127.6969663145519</v>
+        <v>127.696966314552</v>
       </c>
       <c r="U22" t="n">
-        <v>193.8789383258172</v>
+        <v>193.8789383258173</v>
       </c>
       <c r="V22" t="n">
         <v>159.7985246907801</v>
@@ -2302,10 +2302,10 @@
         <v>194.1838797035431</v>
       </c>
       <c r="X22" t="n">
-        <v>133.3705367559892</v>
+        <v>133.3705367559893</v>
       </c>
       <c r="Y22" t="n">
-        <v>126.2455347190468</v>
+        <v>126.2455347190469</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>290.3947230304326</v>
+        <v>290.3947230304327</v>
       </c>
       <c r="C23" t="n">
-        <v>272.9337731379596</v>
+        <v>272.9337731379597</v>
       </c>
       <c r="D23" t="n">
-        <v>262.343922987635</v>
+        <v>262.3439229876351</v>
       </c>
       <c r="E23" t="n">
-        <v>289.5912514392138</v>
+        <v>289.5912514392139</v>
       </c>
       <c r="F23" t="n">
-        <v>314.5369271086635</v>
+        <v>314.5369271086636</v>
       </c>
       <c r="G23" t="n">
-        <v>318.5826070204055</v>
+        <v>318.5826070204056</v>
       </c>
       <c r="H23" t="n">
-        <v>202.2686457542725</v>
+        <v>202.2686457542726</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>16.84864315512789</v>
+        <v>16.84864315512797</v>
       </c>
       <c r="T23" t="n">
-        <v>111.5788515065722</v>
+        <v>111.5788515065723</v>
       </c>
       <c r="U23" t="n">
-        <v>158.656053325854</v>
+        <v>158.6560533258541</v>
       </c>
       <c r="V23" t="n">
         <v>235.413139837087</v>
       </c>
       <c r="W23" t="n">
-        <v>256.901850084365</v>
+        <v>256.9018500843652</v>
       </c>
       <c r="X23" t="n">
-        <v>277.3919820454211</v>
+        <v>277.3919820454212</v>
       </c>
       <c r="Y23" t="n">
         <v>293.8988200230057</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>87.49286154888935</v>
+        <v>87.49286154888942</v>
       </c>
       <c r="C25" t="n">
-        <v>74.90770246557989</v>
+        <v>74.90770246557996</v>
       </c>
       <c r="D25" t="n">
-        <v>56.27635438516441</v>
+        <v>56.27635438516448</v>
       </c>
       <c r="E25" t="n">
-        <v>54.09484401352123</v>
+        <v>54.0948440135213</v>
       </c>
       <c r="F25" t="n">
-        <v>53.0819293898833</v>
+        <v>53.08192938988337</v>
       </c>
       <c r="G25" t="n">
-        <v>73.68668962598028</v>
+        <v>73.68668962598035</v>
       </c>
       <c r="H25" t="n">
-        <v>52.41589628127284</v>
+        <v>52.41589628127291</v>
       </c>
       <c r="I25" t="n">
-        <v>4.013301776790151</v>
+        <v>4.013301776790236</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>97.42990669839395</v>
+        <v>97.42990669839403</v>
       </c>
       <c r="T25" t="n">
         <v>127.2098306431213</v>
       </c>
       <c r="U25" t="n">
-        <v>193.8727195725649</v>
+        <v>193.872719572565</v>
       </c>
       <c r="V25" t="n">
         <v>159.7985246907801</v>
@@ -2539,10 +2539,10 @@
         <v>194.1838797035431</v>
       </c>
       <c r="X25" t="n">
-        <v>133.3705367559892</v>
+        <v>133.3705367559893</v>
       </c>
       <c r="Y25" t="n">
-        <v>126.2455347190468</v>
+        <v>126.2455347190469</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2795,16 +2795,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2880,7 +2880,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.069212393383</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>134.9994691657081</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448879</v>
       </c>
       <c r="C32" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536691</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958319</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515422</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988203</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374609</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797653</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043386</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572814</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124545</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145469</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3241,7 +3241,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3250,10 +3250,10 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335021</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
@@ -3332,7 +3332,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3360,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I36" t="n">
         <v>18.81721868247745</v>
@@ -3408,7 +3408,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034764</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383232</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052285</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010738</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846419</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482627</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092325</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H37" t="n">
-        <v>47.0702946862158</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007081</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
         <v>153.310451730797</v>
@@ -3569,7 +3569,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3594,13 +3594,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>134.9994691657081</v>
+        <v>134.999469165707</v>
       </c>
       <c r="H39" t="n">
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383226</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C40" t="n">
-        <v>69.5621008705228</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010732</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846414</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482621</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092319</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621575</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
         <v>154.452923095723</v>
@@ -3724,7 +3724,7 @@
         <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
         <v>120.8999331239898</v>
@@ -3740,7 +3740,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
         <v>256.998321392578</v>
@@ -3749,13 +3749,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3834,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I42" t="n">
         <v>18.81721868247745</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383236</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052281</v>
+        <v>69.5621008705229</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010742</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846423</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482631</v>
       </c>
       <c r="G43" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621585</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C44" t="n">
         <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F44" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253484</v>
       </c>
       <c r="H44" t="n">
         <v>196.9230441592154</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007081</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115151</v>
@@ -4068,7 +4068,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.9994691657081</v>
+        <v>134.999469165707</v>
       </c>
       <c r="H45" t="n">
         <v>89.59687541851116</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383226</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052281</v>
+        <v>69.5621008705228</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010732</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846414</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482621</v>
       </c>
       <c r="G46" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092319</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621575</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>92.08430510333687</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U46" t="n">
         <v>188.5271179775078</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1655.418134179827</v>
+        <v>1013.424308267737</v>
       </c>
       <c r="C11" t="n">
-        <v>1332.277821294421</v>
+        <v>690.2839953823309</v>
       </c>
       <c r="D11" t="n">
-        <v>1019.834326742676</v>
+        <v>690.2839953823309</v>
       </c>
       <c r="E11" t="n">
-        <v>679.8682781994368</v>
+        <v>690.2839953823309</v>
       </c>
       <c r="F11" t="n">
-        <v>314.7045774648347</v>
+        <v>690.2839953823309</v>
       </c>
       <c r="G11" t="n">
-        <v>314.7045774648347</v>
+        <v>320.7770151413312</v>
       </c>
       <c r="H11" t="n">
-        <v>60.313902607073</v>
+        <v>66.38634028356944</v>
       </c>
       <c r="I11" t="n">
-        <v>60.313902607073</v>
+        <v>60.31390260707303</v>
       </c>
       <c r="J11" t="n">
-        <v>227.8366650533171</v>
+        <v>227.836665053317</v>
       </c>
       <c r="K11" t="n">
-        <v>529.648378409931</v>
+        <v>529.6483784099305</v>
       </c>
       <c r="L11" t="n">
         <v>940.9742587040305</v>
       </c>
       <c r="M11" t="n">
-        <v>1430.322991987628</v>
+        <v>1430.322991987629</v>
       </c>
       <c r="N11" t="n">
         <v>1932.203707752938</v>
       </c>
       <c r="O11" t="n">
-        <v>2392.780174741108</v>
+        <v>2392.780174741109</v>
       </c>
       <c r="P11" t="n">
-        <v>2751.370532643391</v>
+        <v>2751.370532643392</v>
       </c>
       <c r="Q11" t="n">
-        <v>2972.484210969454</v>
+        <v>2972.484210969455</v>
       </c>
       <c r="R11" t="n">
-        <v>3015.69513035365</v>
+        <v>3015.695130353651</v>
       </c>
       <c r="S11" t="n">
-        <v>2953.397135604389</v>
+        <v>2945.376336697674</v>
       </c>
       <c r="T11" t="n">
-        <v>2953.397135604389</v>
+        <v>2784.096939434666</v>
       </c>
       <c r="U11" t="n">
-        <v>2953.397135604389</v>
+        <v>2576.368128032228</v>
       </c>
       <c r="V11" t="n">
-        <v>2668.156452315824</v>
+        <v>2291.127444743663</v>
       </c>
       <c r="W11" t="n">
-        <v>2668.156452315824</v>
+        <v>1984.180993528554</v>
       </c>
       <c r="X11" t="n">
-        <v>2340.51289810975</v>
+        <v>1698.51907219766</v>
       </c>
       <c r="Y11" t="n">
-        <v>1996.195770188943</v>
+        <v>1354.201944276854</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>871.9801653865428</v>
+        <v>780.3357572765321</v>
       </c>
       <c r="C12" t="n">
-        <v>697.5271361054158</v>
+        <v>651.7049320504105</v>
       </c>
       <c r="D12" t="n">
-        <v>594.4149304991699</v>
+        <v>502.7705223891593</v>
       </c>
       <c r="E12" t="n">
-        <v>435.1774754937145</v>
+        <v>343.5330673837038</v>
       </c>
       <c r="F12" t="n">
-        <v>288.6429175205994</v>
+        <v>242.8207134655941</v>
       </c>
       <c r="G12" t="n">
         <v>152.1424524776806</v>
       </c>
       <c r="H12" t="n">
-        <v>60.313902607073</v>
+        <v>60.31390260707303</v>
       </c>
       <c r="I12" t="n">
-        <v>60.313902607073</v>
+        <v>60.31390260707303</v>
       </c>
       <c r="J12" t="n">
-        <v>141.2714653172487</v>
+        <v>141.2714653172488</v>
       </c>
       <c r="K12" t="n">
-        <v>357.7956594447329</v>
+        <v>357.7956594447331</v>
       </c>
       <c r="L12" t="n">
-        <v>695.2617003494895</v>
+        <v>695.2617003494898</v>
       </c>
       <c r="M12" t="n">
-        <v>1108.425521012773</v>
+        <v>1108.425521012774</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.933203517443</v>
+        <v>1546.933203517444</v>
       </c>
       <c r="O12" t="n">
-        <v>1925.862268380992</v>
+        <v>1925.862268380993</v>
       </c>
       <c r="P12" t="n">
-        <v>2210.653183667183</v>
+        <v>2210.653183667185</v>
       </c>
       <c r="Q12" t="n">
-        <v>2351.109172113747</v>
+        <v>2351.109172113749</v>
       </c>
       <c r="R12" t="n">
-        <v>2351.109172113747</v>
+        <v>2342.436146872488</v>
       </c>
       <c r="S12" t="n">
-        <v>2264.941997346887</v>
+        <v>2210.446768050622</v>
       </c>
       <c r="T12" t="n">
-        <v>2071.745320179924</v>
+        <v>2017.25009088366</v>
       </c>
       <c r="U12" t="n">
-        <v>1889.490640206481</v>
+        <v>1789.173206855211</v>
       </c>
       <c r="V12" t="n">
-        <v>1654.338531974739</v>
+        <v>1554.021098623469</v>
       </c>
       <c r="W12" t="n">
-        <v>1400.101175246537</v>
+        <v>1299.783741895267</v>
       </c>
       <c r="X12" t="n">
-        <v>1192.249675041004</v>
+        <v>1091.932241689734</v>
       </c>
       <c r="Y12" t="n">
-        <v>994.3732983516054</v>
+        <v>902.7288902415949</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>655.4682036286229</v>
+        <v>606.2818437768615</v>
       </c>
       <c r="C13" t="n">
-        <v>532.3542247557214</v>
+        <v>483.1678649039598</v>
       </c>
       <c r="D13" t="n">
-        <v>428.059789398391</v>
+        <v>378.8734295466294</v>
       </c>
       <c r="E13" t="n">
-        <v>325.9688998710033</v>
+        <v>276.7825400192416</v>
       </c>
       <c r="F13" t="n">
-        <v>224.9011564280983</v>
+        <v>175.7147965763366</v>
       </c>
       <c r="G13" t="n">
-        <v>161.7327810717107</v>
+        <v>161.7327810717108</v>
       </c>
       <c r="H13" t="n">
-        <v>60.313902607073</v>
+        <v>60.31390260707303</v>
       </c>
       <c r="I13" t="n">
-        <v>60.313902607073</v>
+        <v>60.31390260707303</v>
       </c>
       <c r="J13" t="n">
-        <v>142.3669419811936</v>
+        <v>142.3669419811938</v>
       </c>
       <c r="K13" t="n">
-        <v>378.1509821412425</v>
+        <v>378.1509821412428</v>
       </c>
       <c r="L13" t="n">
-        <v>722.8403768204936</v>
+        <v>722.8403768204939</v>
       </c>
       <c r="M13" t="n">
         <v>1094.214820829983</v>
       </c>
       <c r="N13" t="n">
-        <v>1463.261294603306</v>
+        <v>1463.261294603307</v>
       </c>
       <c r="O13" t="n">
-        <v>1791.547521749499</v>
+        <v>1791.5475217495</v>
       </c>
       <c r="P13" t="n">
-        <v>2055.414205988136</v>
+        <v>2055.414205988137</v>
       </c>
       <c r="Q13" t="n">
-        <v>2168.483489860808</v>
+        <v>2168.483489860809</v>
       </c>
       <c r="R13" t="n">
-        <v>2168.483489860808</v>
+        <v>2119.297130009048</v>
       </c>
       <c r="S13" t="n">
-        <v>2020.612848465759</v>
+        <v>1971.426488613999</v>
       </c>
       <c r="T13" t="n">
-        <v>1844.176380856523</v>
+        <v>1794.990021004762</v>
       </c>
       <c r="U13" t="n">
-        <v>1600.88943646823</v>
+        <v>1551.703076616469</v>
       </c>
       <c r="V13" t="n">
-        <v>1392.027152317349</v>
+        <v>1342.840792465588</v>
       </c>
       <c r="W13" t="n">
-        <v>1148.432186335393</v>
+        <v>1099.245826483633</v>
       </c>
       <c r="X13" t="n">
-        <v>966.2648394923815</v>
+        <v>917.0784796406206</v>
       </c>
       <c r="Y13" t="n">
-        <v>791.294464403857</v>
+        <v>742.1081045520958</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1439.668523870671</v>
+        <v>971.4426753925596</v>
       </c>
       <c r="C14" t="n">
-        <v>1116.528210985265</v>
+        <v>971.4426753925596</v>
       </c>
       <c r="D14" t="n">
-        <v>1116.528210985265</v>
+        <v>971.4426753925596</v>
       </c>
       <c r="E14" t="n">
-        <v>776.5621624420265</v>
+        <v>631.4766268493206</v>
       </c>
       <c r="F14" t="n">
-        <v>411.3984617074244</v>
+        <v>631.4766268493206</v>
       </c>
       <c r="G14" t="n">
-        <v>320.7770151413312</v>
+        <v>261.9696466083205</v>
       </c>
       <c r="H14" t="n">
-        <v>66.38634028356947</v>
+        <v>66.3863402835696</v>
       </c>
       <c r="I14" t="n">
-        <v>60.313902607073</v>
+        <v>60.31390260707303</v>
       </c>
       <c r="J14" t="n">
-        <v>227.8366650533171</v>
+        <v>227.8366650533176</v>
       </c>
       <c r="K14" t="n">
-        <v>529.648378409931</v>
+        <v>529.6483784099307</v>
       </c>
       <c r="L14" t="n">
-        <v>940.9742587040309</v>
+        <v>940.9742587040305</v>
       </c>
       <c r="M14" t="n">
-        <v>1430.322991987629</v>
+        <v>1430.322991987628</v>
       </c>
       <c r="N14" t="n">
         <v>1932.203707752938</v>
@@ -5297,31 +5297,31 @@
         <v>2751.370532643391</v>
       </c>
       <c r="Q14" t="n">
-        <v>2972.484210969454</v>
+        <v>2972.484210969455</v>
       </c>
       <c r="R14" t="n">
-        <v>3015.69513035365</v>
+        <v>3015.695130353651</v>
       </c>
       <c r="S14" t="n">
-        <v>2945.376336697672</v>
+        <v>2945.376336697674</v>
       </c>
       <c r="T14" t="n">
-        <v>2945.376336697672</v>
+        <v>2784.096939434666</v>
       </c>
       <c r="U14" t="n">
-        <v>2737.647525295234</v>
+        <v>2576.368128032227</v>
       </c>
       <c r="V14" t="n">
-        <v>2452.406842006668</v>
+        <v>2291.127444743662</v>
       </c>
       <c r="W14" t="n">
-        <v>2452.406842006668</v>
+        <v>1984.180993528553</v>
       </c>
       <c r="X14" t="n">
-        <v>2124.763287800594</v>
+        <v>1656.537439322478</v>
       </c>
       <c r="Y14" t="n">
-        <v>1780.446159879788</v>
+        <v>1312.220311401672</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>826.1579613315374</v>
+        <v>804.0724974406303</v>
       </c>
       <c r="C15" t="n">
-        <v>651.7049320504104</v>
+        <v>675.4416722145086</v>
       </c>
       <c r="D15" t="n">
-        <v>502.7705223891591</v>
+        <v>526.5072625532573</v>
       </c>
       <c r="E15" t="n">
-        <v>343.5330673837036</v>
+        <v>413.092011602807</v>
       </c>
       <c r="F15" t="n">
-        <v>196.9985094105886</v>
+        <v>312.3796576846972</v>
       </c>
       <c r="G15" t="n">
-        <v>106.3202484226752</v>
+        <v>175.8791926417784</v>
       </c>
       <c r="H15" t="n">
-        <v>60.313902607073</v>
+        <v>84.05064277117077</v>
       </c>
       <c r="I15" t="n">
-        <v>60.313902607073</v>
+        <v>60.31390260707303</v>
       </c>
       <c r="J15" t="n">
-        <v>141.2714653172487</v>
+        <v>141.2714653172488</v>
       </c>
       <c r="K15" t="n">
-        <v>357.7956594447329</v>
+        <v>357.7956594447331</v>
       </c>
       <c r="L15" t="n">
-        <v>695.2617003494895</v>
+        <v>695.2617003494897</v>
       </c>
       <c r="M15" t="n">
-        <v>1108.425521012773</v>
+        <v>1108.425521012774</v>
       </c>
       <c r="N15" t="n">
-        <v>1546.933203517443</v>
+        <v>1546.933203517444</v>
       </c>
       <c r="O15" t="n">
         <v>1925.862268380992</v>
       </c>
       <c r="P15" t="n">
-        <v>2210.653183667183</v>
+        <v>2210.653183667184</v>
       </c>
       <c r="Q15" t="n">
-        <v>2351.109172113747</v>
+        <v>2351.109172113748</v>
       </c>
       <c r="R15" t="n">
-        <v>2342.436146872487</v>
+        <v>2342.436146872488</v>
       </c>
       <c r="S15" t="n">
-        <v>2256.268972105626</v>
+        <v>2210.446768050622</v>
       </c>
       <c r="T15" t="n">
-        <v>2063.072294938664</v>
+        <v>2017.25009088366</v>
       </c>
       <c r="U15" t="n">
-        <v>1853.552358227031</v>
+        <v>1789.173206855211</v>
       </c>
       <c r="V15" t="n">
-        <v>1618.400249995288</v>
+        <v>1554.021098623468</v>
       </c>
       <c r="W15" t="n">
-        <v>1364.162893267087</v>
+        <v>1299.783741895267</v>
       </c>
       <c r="X15" t="n">
-        <v>1202.133597116559</v>
+        <v>1137.754445744739</v>
       </c>
       <c r="Y15" t="n">
-        <v>994.3732983516054</v>
+        <v>972.2878344606984</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>742.1081045520953</v>
+        <v>606.2818437768597</v>
       </c>
       <c r="C16" t="n">
-        <v>618.9941256791942</v>
+        <v>483.1678649039579</v>
       </c>
       <c r="D16" t="n">
-        <v>541.8539201793966</v>
+        <v>378.8734295466274</v>
       </c>
       <c r="E16" t="n">
-        <v>439.7630306520089</v>
+        <v>276.7825400192395</v>
       </c>
       <c r="F16" t="n">
-        <v>338.6952872091041</v>
+        <v>276.7825400192395</v>
       </c>
       <c r="G16" t="n">
-        <v>216.6994925415635</v>
+        <v>161.7327810717109</v>
       </c>
       <c r="H16" t="n">
-        <v>115.2806140769258</v>
+        <v>60.31390260707303</v>
       </c>
       <c r="I16" t="n">
-        <v>60.313902607073</v>
+        <v>60.31390260707303</v>
       </c>
       <c r="J16" t="n">
-        <v>142.3669419811937</v>
+        <v>142.3669419811935</v>
       </c>
       <c r="K16" t="n">
-        <v>378.1509821412425</v>
+        <v>378.1509821412423</v>
       </c>
       <c r="L16" t="n">
-        <v>722.8403768204935</v>
+        <v>722.8403768204934</v>
       </c>
       <c r="M16" t="n">
         <v>1094.214820829983</v>
@@ -5455,13 +5455,13 @@
         <v>2055.414205988136</v>
       </c>
       <c r="Q16" t="n">
-        <v>2168.483489860808</v>
+        <v>2168.483489860807</v>
       </c>
       <c r="R16" t="n">
         <v>2119.297130009047</v>
       </c>
       <c r="S16" t="n">
-        <v>1971.426488613998</v>
+        <v>1971.426488613997</v>
       </c>
       <c r="T16" t="n">
         <v>1794.990021004761</v>
@@ -5470,16 +5470,16 @@
         <v>1551.703076616468</v>
       </c>
       <c r="V16" t="n">
-        <v>1342.840792465587</v>
+        <v>1342.840792465586</v>
       </c>
       <c r="W16" t="n">
-        <v>1099.245826483632</v>
+        <v>1099.245826483631</v>
       </c>
       <c r="X16" t="n">
-        <v>917.0784796406199</v>
+        <v>917.078479640619</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.1081045520953</v>
+        <v>742.1081045520941</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1351.039738977145</v>
+        <v>1351.039738977143</v>
       </c>
       <c r="C17" t="n">
-        <v>1199.542775191382</v>
+        <v>1075.34905903981</v>
       </c>
       <c r="D17" t="n">
-        <v>1199.542775191382</v>
+        <v>810.3551974361383</v>
       </c>
       <c r="E17" t="n">
-        <v>907.0263595962167</v>
+        <v>517.8387818409722</v>
       </c>
       <c r="F17" t="n">
-        <v>589.3122918096878</v>
+        <v>517.8387818409722</v>
       </c>
       <c r="G17" t="n">
-        <v>267.2549445167614</v>
+        <v>267.2549445167615</v>
       </c>
       <c r="H17" t="n">
-        <v>60.313902607073</v>
+        <v>60.31390260707303</v>
       </c>
       <c r="I17" t="n">
-        <v>60.313902607073</v>
+        <v>60.31390260707303</v>
       </c>
       <c r="J17" t="n">
-        <v>227.8366650533171</v>
+        <v>227.8366650533176</v>
       </c>
       <c r="K17" t="n">
-        <v>529.648378409931</v>
+        <v>529.6483784099314</v>
       </c>
       <c r="L17" t="n">
-        <v>940.9742587040305</v>
+        <v>940.9742587040312</v>
       </c>
       <c r="M17" t="n">
-        <v>1430.322991987628</v>
+        <v>1430.322991987629</v>
       </c>
       <c r="N17" t="n">
         <v>1932.203707752938</v>
       </c>
       <c r="O17" t="n">
-        <v>2392.780174741108</v>
+        <v>2392.780174741109</v>
       </c>
       <c r="P17" t="n">
-        <v>2751.370532643391</v>
+        <v>2751.370532643392</v>
       </c>
       <c r="Q17" t="n">
-        <v>2972.484210969454</v>
+        <v>2972.484210969455</v>
       </c>
       <c r="R17" t="n">
-        <v>3015.69513035365</v>
+        <v>3015.695130353651</v>
       </c>
       <c r="S17" t="n">
-        <v>2992.825969645746</v>
+        <v>2992.825969645747</v>
       </c>
       <c r="T17" t="n">
-        <v>2878.996205330812</v>
+        <v>2878.996205330813</v>
       </c>
       <c r="U17" t="n">
-        <v>2718.717026876447</v>
+        <v>2718.717026876448</v>
       </c>
       <c r="V17" t="n">
-        <v>2480.925976535955</v>
+        <v>2480.925976535956</v>
       </c>
       <c r="W17" t="n">
-        <v>2221.429158268922</v>
+        <v>2221.42915826892</v>
       </c>
       <c r="X17" t="n">
-        <v>1941.235237010921</v>
+        <v>1941.235237010919</v>
       </c>
       <c r="Y17" t="n">
-        <v>1644.367742038188</v>
+        <v>1644.367742038186</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>715.9566059047108</v>
+        <v>848.2672726025672</v>
       </c>
       <c r="C18" t="n">
-        <v>541.5035766235839</v>
+        <v>673.8142433214402</v>
       </c>
       <c r="D18" t="n">
-        <v>392.5691669623326</v>
+        <v>524.879833660189</v>
       </c>
       <c r="E18" t="n">
-        <v>233.3317119568771</v>
+        <v>365.6423786547335</v>
       </c>
       <c r="F18" t="n">
-        <v>103.5425306469131</v>
+        <v>219.1078206816185</v>
       </c>
       <c r="G18" t="n">
-        <v>60.313902607073</v>
+        <v>175.8791926417784</v>
       </c>
       <c r="H18" t="n">
-        <v>60.313902607073</v>
+        <v>84.05064277117077</v>
       </c>
       <c r="I18" t="n">
-        <v>60.313902607073</v>
+        <v>60.31390260707303</v>
       </c>
       <c r="J18" t="n">
-        <v>141.2714653172487</v>
+        <v>141.2714653172488</v>
       </c>
       <c r="K18" t="n">
-        <v>357.7956594447329</v>
+        <v>357.7956594447331</v>
       </c>
       <c r="L18" t="n">
-        <v>695.2617003494895</v>
+        <v>695.2617003494897</v>
       </c>
       <c r="M18" t="n">
-        <v>1108.425521012773</v>
+        <v>1108.425521012774</v>
       </c>
       <c r="N18" t="n">
-        <v>1546.933203517443</v>
+        <v>1546.933203517444</v>
       </c>
       <c r="O18" t="n">
         <v>1925.862268380992</v>
       </c>
       <c r="P18" t="n">
-        <v>2210.653183667183</v>
+        <v>2210.653183667184</v>
       </c>
       <c r="Q18" t="n">
-        <v>2351.109172113747</v>
+        <v>2351.109172113748</v>
       </c>
       <c r="R18" t="n">
-        <v>2342.436146872487</v>
+        <v>2342.436146872488</v>
       </c>
       <c r="S18" t="n">
-        <v>2210.446768050621</v>
+        <v>2210.446768050622</v>
       </c>
       <c r="T18" t="n">
-        <v>2017.250090883659</v>
+        <v>2017.25009088366</v>
       </c>
       <c r="U18" t="n">
-        <v>1789.17320685521</v>
+        <v>1789.173206855211</v>
       </c>
       <c r="V18" t="n">
-        <v>1554.021098623467</v>
+        <v>1554.021098623468</v>
       </c>
       <c r="W18" t="n">
-        <v>1299.783741895266</v>
+        <v>1299.783741895267</v>
       </c>
       <c r="X18" t="n">
-        <v>1091.932241689733</v>
+        <v>1130.97107138451</v>
       </c>
       <c r="Y18" t="n">
-        <v>884.1719429247789</v>
+        <v>923.2107726195566</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>437.1149037731153</v>
+        <v>437.1149037731158</v>
       </c>
       <c r="C19" t="n">
-        <v>361.4505578482871</v>
+        <v>361.4505578482876</v>
       </c>
       <c r="D19" t="n">
-        <v>304.6057554390301</v>
+        <v>304.6057554390305</v>
       </c>
       <c r="E19" t="n">
-        <v>249.9644988597158</v>
+        <v>249.9644988597161</v>
       </c>
       <c r="F19" t="n">
-        <v>196.3463883648841</v>
+        <v>196.3463883648844</v>
       </c>
       <c r="G19" t="n">
-        <v>121.8002266454169</v>
+        <v>121.8002266454171</v>
       </c>
       <c r="H19" t="n">
-        <v>67.83098112885249</v>
+        <v>67.83098112885257</v>
       </c>
       <c r="I19" t="n">
-        <v>60.313902607073</v>
+        <v>60.31390260707303</v>
       </c>
       <c r="J19" t="n">
-        <v>188.8723272336003</v>
+        <v>155.5724483241042</v>
       </c>
       <c r="K19" t="n">
-        <v>365.4854239648498</v>
+        <v>332.1855450553537</v>
       </c>
       <c r="L19" t="n">
-        <v>595.8302493703686</v>
+        <v>562.5303704608726</v>
       </c>
       <c r="M19" t="n">
-        <v>836.9855143319135</v>
+        <v>803.6856354224175</v>
       </c>
       <c r="N19" t="n">
-        <v>1082.437833681627</v>
+        <v>1049.137954772131</v>
       </c>
       <c r="O19" t="n">
-        <v>1295.818196378002</v>
+        <v>1262.518317468506</v>
       </c>
       <c r="P19" t="n">
-        <v>1472.533768188146</v>
+        <v>1477.384712993299</v>
       </c>
       <c r="Q19" t="n">
-        <v>1572.269853324402</v>
+        <v>1572.269853324404</v>
       </c>
       <c r="R19" t="n">
-        <v>1570.533126420715</v>
+        <v>1570.533126420716</v>
       </c>
       <c r="S19" t="n">
-        <v>1470.112117973739</v>
+        <v>1470.11211797374</v>
       </c>
       <c r="T19" t="n">
-        <v>1341.125283312576</v>
+        <v>1341.125283312577</v>
       </c>
       <c r="U19" t="n">
-        <v>1145.287971872356</v>
+        <v>1145.287971872357</v>
       </c>
       <c r="V19" t="n">
-        <v>983.8753206695482</v>
+        <v>983.875320669549</v>
       </c>
       <c r="W19" t="n">
-        <v>787.7299876356662</v>
+        <v>787.7299876356669</v>
       </c>
       <c r="X19" t="n">
-        <v>653.0122737407277</v>
+        <v>653.0122737407282</v>
       </c>
       <c r="Y19" t="n">
-        <v>525.4915316002763</v>
+        <v>525.4915316002769</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1740.227316732387</v>
+        <v>1351.039738977143</v>
       </c>
       <c r="C20" t="n">
-        <v>1464.536636795054</v>
+        <v>1075.34905903981</v>
       </c>
       <c r="D20" t="n">
-        <v>1199.542775191382</v>
+        <v>810.3551974361383</v>
       </c>
       <c r="E20" t="n">
-        <v>907.0263595962167</v>
+        <v>517.8387818409728</v>
       </c>
       <c r="F20" t="n">
-        <v>589.3122918096878</v>
+        <v>382.3712498999997</v>
       </c>
       <c r="G20" t="n">
-        <v>267.2549445167614</v>
+        <v>60.31390260707303</v>
       </c>
       <c r="H20" t="n">
-        <v>60.313902607073</v>
+        <v>60.31390260707303</v>
       </c>
       <c r="I20" t="n">
-        <v>60.313902607073</v>
+        <v>60.31390260707303</v>
       </c>
       <c r="J20" t="n">
-        <v>227.8366650533171</v>
+        <v>227.836665053317</v>
       </c>
       <c r="K20" t="n">
         <v>529.6483784099305</v>
       </c>
       <c r="L20" t="n">
-        <v>940.97425870403</v>
+        <v>940.9742587040301</v>
       </c>
       <c r="M20" t="n">
         <v>1430.322991987628</v>
       </c>
       <c r="N20" t="n">
-        <v>1932.203707752937</v>
+        <v>1932.203707752938</v>
       </c>
       <c r="O20" t="n">
-        <v>2392.780174741107</v>
+        <v>2392.780174741109</v>
       </c>
       <c r="P20" t="n">
-        <v>2751.370532643391</v>
+        <v>2751.370532643392</v>
       </c>
       <c r="Q20" t="n">
-        <v>2972.484210969454</v>
+        <v>2972.484210969455</v>
       </c>
       <c r="R20" t="n">
-        <v>3015.69513035365</v>
+        <v>3015.695130353651</v>
       </c>
       <c r="S20" t="n">
-        <v>2992.825969645746</v>
+        <v>2992.825969645747</v>
       </c>
       <c r="T20" t="n">
-        <v>2878.996205330811</v>
+        <v>2878.996205330813</v>
       </c>
       <c r="U20" t="n">
-        <v>2718.717026876446</v>
+        <v>2718.717026876448</v>
       </c>
       <c r="V20" t="n">
-        <v>2610.616736024164</v>
+        <v>2480.925976535956</v>
       </c>
       <c r="W20" t="n">
-        <v>2610.616736024164</v>
+        <v>2221.42915826892</v>
       </c>
       <c r="X20" t="n">
-        <v>2330.422814766163</v>
+        <v>1941.235237010919</v>
       </c>
       <c r="Y20" t="n">
-        <v>2033.55531979343</v>
+        <v>1644.367742038186</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>724.6296311459712</v>
+        <v>715.9566059047122</v>
       </c>
       <c r="C21" t="n">
-        <v>550.1766018648442</v>
+        <v>541.5035766235852</v>
       </c>
       <c r="D21" t="n">
-        <v>401.2421922035929</v>
+        <v>433.0512837895814</v>
       </c>
       <c r="E21" t="n">
-        <v>242.0047371981374</v>
+        <v>273.8138287841259</v>
       </c>
       <c r="F21" t="n">
-        <v>103.5425306469131</v>
+        <v>220.5511078140896</v>
       </c>
       <c r="G21" t="n">
-        <v>60.313902607073</v>
+        <v>84.05064277117076</v>
       </c>
       <c r="H21" t="n">
-        <v>60.313902607073</v>
+        <v>84.05064277117076</v>
       </c>
       <c r="I21" t="n">
-        <v>60.313902607073</v>
+        <v>60.31390260707303</v>
       </c>
       <c r="J21" t="n">
-        <v>141.2714653172487</v>
+        <v>141.2714653172488</v>
       </c>
       <c r="K21" t="n">
-        <v>357.7956594447329</v>
+        <v>357.7956594447331</v>
       </c>
       <c r="L21" t="n">
-        <v>695.2617003494895</v>
+        <v>695.2617003494898</v>
       </c>
       <c r="M21" t="n">
-        <v>1108.425521012773</v>
+        <v>1108.425521012774</v>
       </c>
       <c r="N21" t="n">
-        <v>1546.933203517443</v>
+        <v>1546.933203517444</v>
       </c>
       <c r="O21" t="n">
-        <v>1925.862268380992</v>
+        <v>1925.862268380993</v>
       </c>
       <c r="P21" t="n">
-        <v>2210.653183667183</v>
+        <v>2210.653183667185</v>
       </c>
       <c r="Q21" t="n">
-        <v>2351.109172113747</v>
+        <v>2351.109172113749</v>
       </c>
       <c r="R21" t="n">
-        <v>2351.109172113747</v>
+        <v>2342.436146872488</v>
       </c>
       <c r="S21" t="n">
-        <v>2219.119793291881</v>
+        <v>2210.446768050622</v>
       </c>
       <c r="T21" t="n">
-        <v>2025.923116124919</v>
+        <v>2017.25009088366</v>
       </c>
       <c r="U21" t="n">
-        <v>1797.84623209647</v>
+        <v>1789.173206855211</v>
       </c>
       <c r="V21" t="n">
-        <v>1562.694123864728</v>
+        <v>1554.021098623469</v>
       </c>
       <c r="W21" t="n">
-        <v>1308.456767136526</v>
+        <v>1299.783741895267</v>
       </c>
       <c r="X21" t="n">
-        <v>1100.605266930993</v>
+        <v>1091.932241689734</v>
       </c>
       <c r="Y21" t="n">
-        <v>892.8449681660393</v>
+        <v>884.1719429247803</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>437.1149037731153</v>
+        <v>437.1149037731158</v>
       </c>
       <c r="C22" t="n">
-        <v>361.4505578482871</v>
+        <v>361.4505578482875</v>
       </c>
       <c r="D22" t="n">
-        <v>304.6057554390301</v>
+        <v>304.6057554390305</v>
       </c>
       <c r="E22" t="n">
-        <v>249.9644988597158</v>
+        <v>249.964498859716</v>
       </c>
       <c r="F22" t="n">
-        <v>196.3463883648841</v>
+        <v>196.3463883648843</v>
       </c>
       <c r="G22" t="n">
-        <v>121.8002266454169</v>
+        <v>121.800226645417</v>
       </c>
       <c r="H22" t="n">
-        <v>67.83098112885249</v>
+        <v>67.83098112885256</v>
       </c>
       <c r="I22" t="n">
-        <v>60.313902607073</v>
+        <v>60.31390260707303</v>
       </c>
       <c r="J22" t="n">
         <v>155.5724483241042</v>
       </c>
       <c r="K22" t="n">
-        <v>332.1855450553537</v>
+        <v>332.1855450553538</v>
       </c>
       <c r="L22" t="n">
-        <v>562.5303704608725</v>
+        <v>562.5303704608727</v>
       </c>
       <c r="M22" t="n">
-        <v>803.6856354224174</v>
+        <v>841.836459137067</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.13795477213</v>
+        <v>1087.28877848678</v>
       </c>
       <c r="O22" t="n">
-        <v>1262.518317468506</v>
+        <v>1300.669141183156</v>
       </c>
       <c r="P22" t="n">
-        <v>1439.233889278649</v>
+        <v>1477.384712993299</v>
       </c>
       <c r="Q22" t="n">
-        <v>1572.269853324402</v>
+        <v>1572.269853324404</v>
       </c>
       <c r="R22" t="n">
-        <v>1570.533126420715</v>
+        <v>1570.533126420716</v>
       </c>
       <c r="S22" t="n">
-        <v>1470.112117973739</v>
+        <v>1470.11211797374</v>
       </c>
       <c r="T22" t="n">
-        <v>1341.125283312576</v>
+        <v>1341.125283312577</v>
       </c>
       <c r="U22" t="n">
-        <v>1145.287971872356</v>
+        <v>1145.287971872357</v>
       </c>
       <c r="V22" t="n">
-        <v>983.8753206695482</v>
+        <v>983.875320669549</v>
       </c>
       <c r="W22" t="n">
-        <v>787.7299876356662</v>
+        <v>787.7299876356669</v>
       </c>
       <c r="X22" t="n">
-        <v>653.0122737407277</v>
+        <v>653.0122737407282</v>
       </c>
       <c r="Y22" t="n">
-        <v>525.4915316002763</v>
+        <v>525.4915316002769</v>
       </c>
     </row>
     <row r="23">
@@ -5978,46 +5978,46 @@
         <v>594.1672351353382</v>
       </c>
       <c r="G23" t="n">
-        <v>272.3666219834131</v>
+        <v>272.3666219834132</v>
       </c>
       <c r="H23" t="n">
-        <v>68.05485859525903</v>
+        <v>68.05485859525905</v>
       </c>
       <c r="I23" t="n">
-        <v>68.05485859525903</v>
+        <v>68.05485859525905</v>
       </c>
       <c r="J23" t="n">
-        <v>256.9339895542845</v>
+        <v>256.9339895542844</v>
       </c>
       <c r="K23" t="n">
-        <v>590.7533632441309</v>
+        <v>590.7533632441308</v>
       </c>
       <c r="L23" t="n">
-        <v>1041.78757649254</v>
+        <v>1041.787576492539</v>
       </c>
       <c r="M23" t="n">
-        <v>1650.913847155169</v>
+        <v>1575.319481164463</v>
       </c>
       <c r="N23" t="n">
-        <v>2197.692664213952</v>
+        <v>2122.098298223245</v>
       </c>
       <c r="O23" t="n">
-        <v>2700.665135093288</v>
+        <v>2625.070769102582</v>
       </c>
       <c r="P23" t="n">
-        <v>3095.439501450467</v>
+        <v>3019.84513545976</v>
       </c>
       <c r="Q23" t="n">
-        <v>3343.725863206149</v>
+        <v>3343.72586320615</v>
       </c>
       <c r="R23" t="n">
-        <v>3402.742929762951</v>
+        <v>3402.742929762952</v>
       </c>
       <c r="S23" t="n">
         <v>3385.724098293126</v>
       </c>
       <c r="T23" t="n">
-        <v>3273.018187680426</v>
+        <v>3273.018187680427</v>
       </c>
       <c r="U23" t="n">
         <v>3112.759547957342</v>
@@ -6029,7 +6029,7 @@
         <v>2615.471679349815</v>
       </c>
       <c r="X23" t="n">
-        <v>2335.277758091813</v>
+        <v>2335.277758091814</v>
       </c>
       <c r="Y23" t="n">
         <v>2038.41026311908</v>
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.0865966441843</v>
+        <v>943.0865966441844</v>
       </c>
       <c r="C24" t="n">
-        <v>768.6335673630573</v>
+        <v>768.6335673630574</v>
       </c>
       <c r="D24" t="n">
         <v>619.6991577018061</v>
@@ -6054,31 +6054,31 @@
         <v>460.4617026963506</v>
       </c>
       <c r="F24" t="n">
-        <v>313.9271447232356</v>
+        <v>313.9271447232355</v>
       </c>
       <c r="G24" t="n">
         <v>177.5640445558536</v>
       </c>
       <c r="H24" t="n">
-        <v>87.06215019372108</v>
+        <v>87.06215019372112</v>
       </c>
       <c r="I24" t="n">
-        <v>68.05485859525903</v>
+        <v>68.05485859525905</v>
       </c>
       <c r="J24" t="n">
         <v>161.7321280858763</v>
       </c>
       <c r="K24" t="n">
-        <v>399.9963270662235</v>
+        <v>399.9963270662234</v>
       </c>
       <c r="L24" t="n">
-        <v>766.6944873788891</v>
+        <v>766.6944873788887</v>
       </c>
       <c r="M24" t="n">
-        <v>1213.970812601205</v>
+        <v>1213.970812601204</v>
       </c>
       <c r="N24" t="n">
-        <v>1687.49385615566</v>
+        <v>1687.493856155659</v>
       </c>
       <c r="O24" t="n">
         <v>2098.455135573714</v>
@@ -6099,7 +6099,7 @@
         <v>2244.371044460268</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.303197594684</v>
+        <v>2016.303197594683</v>
       </c>
       <c r="V24" t="n">
         <v>1781.151089362941</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>440.2535635833319</v>
+        <v>440.2535635833324</v>
       </c>
       <c r="C25" t="n">
-        <v>364.5892176585037</v>
+        <v>364.5892176585042</v>
       </c>
       <c r="D25" t="n">
-        <v>307.7444152492467</v>
+        <v>307.7444152492471</v>
       </c>
       <c r="E25" t="n">
-        <v>253.1031586699324</v>
+        <v>253.1031586699327</v>
       </c>
       <c r="F25" t="n">
-        <v>199.4850481751007</v>
+        <v>199.485048175101</v>
       </c>
       <c r="G25" t="n">
-        <v>125.0540485528984</v>
+        <v>125.0540485528986</v>
       </c>
       <c r="H25" t="n">
-        <v>72.10869877383494</v>
+        <v>72.10869877383504</v>
       </c>
       <c r="I25" t="n">
-        <v>68.05485859525903</v>
+        <v>68.05485859525905</v>
       </c>
       <c r="J25" t="n">
         <v>171.2933395794159</v>
       </c>
       <c r="K25" t="n">
-        <v>361.0199212938038</v>
+        <v>361.0199212938036</v>
       </c>
       <c r="L25" t="n">
-        <v>608.1454926628785</v>
+        <v>608.1454926628782</v>
       </c>
       <c r="M25" t="n">
-        <v>866.9937014087938</v>
+        <v>866.9937014087933</v>
       </c>
       <c r="N25" t="n">
-        <v>1129.718265885359</v>
+        <v>1129.718265885358</v>
       </c>
       <c r="O25" t="n">
-        <v>1273.090365843236</v>
+        <v>1273.090365843238</v>
       </c>
       <c r="P25" t="n">
-        <v>1463.457096042712</v>
+        <v>1463.457096042714</v>
       </c>
       <c r="Q25" t="n">
-        <v>1567.79359084797</v>
+        <v>1567.793590847972</v>
       </c>
       <c r="R25" t="n">
-        <v>1571.166487151341</v>
+        <v>1571.166487151342</v>
       </c>
       <c r="S25" t="n">
-        <v>1472.752439981246</v>
+        <v>1472.752439981247</v>
       </c>
       <c r="T25" t="n">
-        <v>1344.257661553851</v>
+        <v>1344.257661553852</v>
       </c>
       <c r="U25" t="n">
-        <v>1148.426631682573</v>
+        <v>1148.426631682574</v>
       </c>
       <c r="V25" t="n">
-        <v>987.0139804797648</v>
+        <v>987.0139804797657</v>
       </c>
       <c r="W25" t="n">
-        <v>790.8686474458829</v>
+        <v>790.8686474458837</v>
       </c>
       <c r="X25" t="n">
-        <v>656.1509335509443</v>
+        <v>656.150933550945</v>
       </c>
       <c r="Y25" t="n">
-        <v>528.6301914104929</v>
+        <v>528.6301914104935</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038483</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467779</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6221,7 +6221,7 @@
         <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>86.49114167389909</v>
+        <v>86.49114167389907</v>
       </c>
       <c r="J26" t="n">
         <v>321.8756578853311</v>
@@ -6233,10 +6233,10 @@
         <v>1199.740015328399</v>
       </c>
       <c r="M26" t="n">
-        <v>1779.77730525273</v>
+        <v>2072.989835964642</v>
       </c>
       <c r="N26" t="n">
-        <v>2373.061507563919</v>
+        <v>2666.274038275831</v>
       </c>
       <c r="O26" t="n">
         <v>3215.751894407575</v>
@@ -6251,10 +6251,10 @@
         <v>4057.345844834457</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U26" t="n">
         <v>3629.895850863831</v>
@@ -6263,13 +6263,13 @@
         <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="27">
@@ -6367,22 +6367,22 @@
         <v>549.9474938257039</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643392</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302703</v>
       </c>
       <c r="I28" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960309</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
         <v>423.2675027973139</v>
@@ -6397,10 +6397,10 @@
         <v>1564.908879308443</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
         <v>2313.972430572251</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398486</v>
@@ -6461,31 +6461,31 @@
         <v>86.49114167389909</v>
       </c>
       <c r="J29" t="n">
-        <v>489.2813069056841</v>
+        <v>321.8756578853311</v>
       </c>
       <c r="K29" t="n">
-        <v>869.6060658479371</v>
+        <v>702.2004168275841</v>
       </c>
       <c r="L29" t="n">
-        <v>1367.145664348752</v>
+        <v>1199.740015328399</v>
       </c>
       <c r="M29" t="n">
-        <v>1947.182954273083</v>
+        <v>1862.797995211336</v>
       </c>
       <c r="N29" t="n">
-        <v>2540.467156584272</v>
+        <v>2456.082197522525</v>
       </c>
       <c r="O29" t="n">
-        <v>3089.945012716015</v>
+        <v>3005.560053654269</v>
       </c>
       <c r="P29" t="n">
-        <v>3531.2247643256</v>
+        <v>3446.839805263854</v>
       </c>
       <c r="Q29" t="n">
-        <v>3886.764137350996</v>
+        <v>3951.823393025248</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309626</v>
@@ -6497,7 +6497,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
@@ -6528,13 +6528,13 @@
         <v>473.5537609977798</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I30" t="n">
         <v>81.14691689668915</v>
@@ -6619,25 +6619,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973139</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982166</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6655,7 +6655,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6674,73 +6674,73 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
         <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E32" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>86.49114167389907</v>
+        <v>86.49114167389918</v>
       </c>
       <c r="J32" t="n">
-        <v>321.8756578853311</v>
+        <v>321.8756578853313</v>
       </c>
       <c r="K32" t="n">
-        <v>702.2004168275841</v>
+        <v>720.1618511119366</v>
       </c>
       <c r="L32" t="n">
-        <v>1199.740015328399</v>
+        <v>1217.701449612752</v>
       </c>
       <c r="M32" t="n">
-        <v>1779.77730525273</v>
+        <v>1797.738739537083</v>
       </c>
       <c r="N32" t="n">
-        <v>2373.061507563919</v>
+        <v>2391.022941848272</v>
       </c>
       <c r="O32" t="n">
-        <v>2922.539363695662</v>
+        <v>2940.500797980016</v>
       </c>
       <c r="P32" t="n">
-        <v>3657.03164601716</v>
+        <v>3381.780549589601</v>
       </c>
       <c r="Q32" t="n">
-        <v>3951.823393025249</v>
+        <v>3886.764137350995</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456137</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644868</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032356</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.55376099778</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246651</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572836</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951511</v>
       </c>
       <c r="I33" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6795,10 +6795,10 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R33" t="n">
         <v>2579.543989590362</v>
@@ -6807,13 +6807,13 @@
         <v>2450.106103083842</v>
       </c>
       <c r="T33" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U33" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W33" t="n">
         <v>1540.005790936169</v>
@@ -6832,67 +6832,67 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697995</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899665</v>
+        <v>652.614500289966</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257036</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I34" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973125</v>
       </c>
       <c r="L34" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982154</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350171</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308442</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481262</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167328</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.03837257035</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519659</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
@@ -6935,22 +6935,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296686</v>
@@ -6980,7 +6980,7 @@
         <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H36" t="n">
         <v>85.51940803064548</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471662</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7081,7 +7081,7 @@
         <v>231.3077836159868</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
         <v>114.0578686404822</v>
@@ -7090,25 +7090,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>67.83109325226762</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>176.361719815531</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K37" t="n">
-        <v>371.3804471090252</v>
+        <v>273.3535972631171</v>
       </c>
       <c r="L37" t="n">
-        <v>623.7981640572063</v>
+        <v>525.7713142112982</v>
       </c>
       <c r="M37" t="n">
-        <v>791.2306453564041</v>
+        <v>789.9116685363199</v>
       </c>
       <c r="N37" t="n">
-        <v>962.5394823862516</v>
+        <v>961.2205055661674</v>
       </c>
       <c r="O37" t="n">
-        <v>1197.165704630265</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P37" t="n">
         <v>1371.681856552142</v>
@@ -7120,7 +7120,7 @@
         <v>1489.975538818984</v>
       </c>
       <c r="S37" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T37" t="n">
         <v>1273.865908363023</v>
@@ -7129,13 +7129,13 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304662</v>
+        <v>927.4214224304665</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673491</v>
+        <v>736.6756869673493</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431752</v>
+        <v>607.3575706431753</v>
       </c>
       <c r="Y37" t="n">
         <v>485.2364260734886</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464963</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307322</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218326</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668173</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7242,13 +7242,13 @@
         <v>312.3844025601587</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170919</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630285</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245362</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919197</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>67.83109325226765</v>
+        <v>67.83109325226761</v>
       </c>
       <c r="J40" t="n">
-        <v>155.2189959588242</v>
+        <v>155.2189959588252</v>
       </c>
       <c r="K40" t="n">
-        <v>350.2377232523185</v>
+        <v>253.5298502264956</v>
       </c>
       <c r="L40" t="n">
-        <v>602.6554402004997</v>
+        <v>409.2396941488528</v>
       </c>
       <c r="M40" t="n">
-        <v>770.0879214996975</v>
+        <v>673.3800484738745</v>
       </c>
       <c r="N40" t="n">
-        <v>941.396758529545</v>
+        <v>941.3967585295459</v>
       </c>
       <c r="O40" t="n">
-        <v>1176.022980773559</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P40" t="n">
-        <v>1371.681856552141</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q40" t="n">
-        <v>1481.310496936506</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304658</v>
+        <v>927.4214224304665</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673486</v>
+        <v>736.6756869673493</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431748</v>
+        <v>607.3575706431753</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734881</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464979</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218417</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
@@ -7442,19 +7442,19 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
         <v>85.51940803064548</v>
@@ -7512,28 +7512,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630285</v>
+        <v>331.994647463029</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>67.83109325226766</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>79.65384678970709</v>
+        <v>175.0427429954467</v>
       </c>
       <c r="K43" t="n">
-        <v>253.5298502264947</v>
+        <v>358.9027651347971</v>
       </c>
       <c r="L43" t="n">
-        <v>505.9475671746759</v>
+        <v>611.3204820829782</v>
       </c>
       <c r="M43" t="n">
-        <v>770.0879214996976</v>
+        <v>778.7529633821759</v>
       </c>
       <c r="N43" t="n">
-        <v>1038.104631555369</v>
+        <v>950.0618004120234</v>
       </c>
       <c r="O43" t="n">
-        <v>1272.730853799383</v>
+        <v>1184.688022656037</v>
       </c>
       <c r="P43" t="n">
-        <v>1468.389729577965</v>
+        <v>1380.34689843462</v>
       </c>
       <c r="Q43" t="n">
-        <v>1481.310496936506</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S43" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304659</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673487</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734889</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
         <v>1440.850850103805</v>
@@ -7631,7 +7631,7 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464974</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F44" t="n">
         <v>581.8252978307332</v>
@@ -7646,22 +7646,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296686</v>
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G45" t="n">
         <v>176.021302392778</v>
@@ -7731,46 +7731,46 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7792,7 +7792,7 @@
         <v>231.3077836159866</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G46" t="n">
         <v>114.0578686404822</v>
@@ -7801,28 +7801,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>67.83109325226766</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>79.65384678970709</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K46" t="n">
-        <v>274.6725740832014</v>
+        <v>273.3535972631171</v>
       </c>
       <c r="L46" t="n">
-        <v>505.947567174676</v>
+        <v>429.0634411854743</v>
       </c>
       <c r="M46" t="n">
-        <v>673.3800484738738</v>
+        <v>693.2037955104961</v>
       </c>
       <c r="N46" t="n">
-        <v>941.3967585295452</v>
+        <v>961.2205055661675</v>
       </c>
       <c r="O46" t="n">
-        <v>1176.022980773559</v>
+        <v>1195.846727810181</v>
       </c>
       <c r="P46" t="n">
-        <v>1371.681856552141</v>
+        <v>1391.505603588764</v>
       </c>
       <c r="Q46" t="n">
         <v>1481.310496936506</v>
@@ -7840,13 +7840,13 @@
         <v>1083.434476062509</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304659</v>
+        <v>927.4214224304658</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673487</v>
+        <v>736.6756869673486</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431748</v>
       </c>
       <c r="Y46" t="n">
         <v>485.2364260734882</v>
@@ -9319,7 +9319,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -9337,10 +9337,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>38.53618557035315</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.89994424762881</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9565,7 +9565,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>38.53618557035281</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -9577,7 +9577,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>38.53618557035236</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9881,13 +9881,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>296.1742734463759</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>296.174273446376</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10030,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272288</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
         <v>106.7437663446525</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>83.859282786471</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>61.36123840132063</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10270,7 +10270,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>106.743766344652</v>
       </c>
       <c r="L31" t="n">
         <v>162.4747015415544</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>18.14286291348685</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>296.1742734463767</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10507,7 +10507,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446505</v>
       </c>
       <c r="L34" t="n">
         <v>162.4747015415544</v>
@@ -10516,7 +10516,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
-        <v>171.8177168444619</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
         <v>163.0416663658825</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>309.3190596062277</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>336.5663880578065</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>361.5120637272561</v>
       </c>
       <c r="G11" t="n">
-        <v>365.8119104385898</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.011713299731461</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.9405909176497</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>159.6666032903777</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>205.651523288414</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>303.8769867029577</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>41.56181654642887</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>58.23914511804152</v>
+        <v>106.9336413712856</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>54.41704435515427</v>
+        <v>54.4170443551543</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.69449625324312</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>319.9089097565524</v>
       </c>
       <c r="D14" t="n">
-        <v>309.3190596062276</v>
+        <v>309.3190596062278</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>361.5120637272562</v>
       </c>
       <c r="G14" t="n">
-        <v>276.0966783381575</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>58.21929484768091</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>159.6666032903777</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>303.8769867029577</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>134.4679981674819</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>26.88268755895736</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>100.0570660084761</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>6.876575362811963</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>54.41704435515444</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23732,19 +23732,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>122.9517789900546</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>262.343922987635</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>314.5369271086636</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>70.75877486902878</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>180.4240704871007</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>204.8716314905916</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24026,10 +24026,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>128.3938518933275</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>256.901850084365</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26314,46 +26314,46 @@
         <v>327710.5354868154</v>
       </c>
       <c r="C2" t="n">
-        <v>327710.5354868154</v>
+        <v>327710.5354868153</v>
       </c>
       <c r="D2" t="n">
         <v>327740.5873316955</v>
       </c>
       <c r="E2" t="n">
-        <v>293468.8763612024</v>
+        <v>293468.876361202</v>
       </c>
       <c r="F2" t="n">
-        <v>293468.8763612024</v>
+        <v>293468.876361202</v>
       </c>
       <c r="G2" t="n">
-        <v>316148.8927947443</v>
+        <v>316148.8927947442</v>
       </c>
       <c r="H2" t="n">
-        <v>316148.8927947441</v>
+        <v>316148.8927947442</v>
       </c>
       <c r="I2" t="n">
-        <v>328416.7079457139</v>
+        <v>328416.7079457138</v>
       </c>
       <c r="J2" t="n">
+        <v>328416.7079457133</v>
+      </c>
+      <c r="K2" t="n">
+        <v>328416.7079457127</v>
+      </c>
+      <c r="L2" t="n">
         <v>328416.7079457126</v>
       </c>
-      <c r="K2" t="n">
-        <v>328416.7079457132</v>
-      </c>
-      <c r="L2" t="n">
-        <v>328416.7079457127</v>
-      </c>
       <c r="M2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="N2" t="n">
-        <v>328416.7079457131</v>
+        <v>328416.7079457135</v>
       </c>
       <c r="O2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="P2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457134</v>
       </c>
     </row>
     <row r="3">
@@ -26372,34 +26372,34 @@
         <v>201068.9115716352</v>
       </c>
       <c r="E3" t="n">
-        <v>897508.78002398</v>
+        <v>897508.7800239804</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487414</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>73322.83076787012</v>
+        <v>73322.83076786959</v>
       </c>
       <c r="J3" t="n">
-        <v>42818.23127774226</v>
+        <v>42818.2312777422</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487405</v>
+        <v>37580.1092948742</v>
       </c>
       <c r="M3" t="n">
         <v>182860.3540168141</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>385783.8405692248</v>
       </c>
       <c r="E4" t="n">
-        <v>65842.91089474827</v>
+        <v>65842.91089474817</v>
       </c>
       <c r="F4" t="n">
-        <v>65842.91089474826</v>
+        <v>65842.91089474807</v>
       </c>
       <c r="G4" t="n">
-        <v>97920.21952056928</v>
+        <v>97920.2195205692</v>
       </c>
       <c r="H4" t="n">
-        <v>97920.2195205693</v>
+        <v>97920.21952056918</v>
       </c>
       <c r="I4" t="n">
-        <v>93877.11913013482</v>
+        <v>93877.11913013492</v>
       </c>
       <c r="J4" t="n">
+        <v>94970.87945926862</v>
+      </c>
+      <c r="K4" t="n">
         <v>94970.87945926865</v>
       </c>
-      <c r="K4" t="n">
-        <v>94970.87945926869</v>
-      </c>
       <c r="L4" t="n">
-        <v>94970.87945926866</v>
+        <v>94970.87945926862</v>
       </c>
       <c r="M4" t="n">
+        <v>93774.13782657706</v>
+      </c>
+      <c r="N4" t="n">
         <v>93774.13782657703</v>
       </c>
-      <c r="N4" t="n">
-        <v>93774.13782657708</v>
-      </c>
       <c r="O4" t="n">
-        <v>93774.13782657709</v>
+        <v>93774.13782657702</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.13782657703</v>
+        <v>93774.13782657706</v>
       </c>
     </row>
     <row r="5">
@@ -26476,37 +26476,37 @@
         <v>38745.80483114667</v>
       </c>
       <c r="E5" t="n">
-        <v>72031.11964579647</v>
+        <v>72031.1196457965</v>
       </c>
       <c r="F5" t="n">
-        <v>72031.11964579647</v>
+        <v>72031.11964579648</v>
       </c>
       <c r="G5" t="n">
-        <v>75980.27240618493</v>
+        <v>75980.27240618496</v>
       </c>
       <c r="H5" t="n">
-        <v>75980.27240618493</v>
+        <v>75980.27240618496</v>
       </c>
       <c r="I5" t="n">
-        <v>83241.68196969246</v>
+        <v>83241.68196969248</v>
       </c>
       <c r="J5" t="n">
         <v>89377.9416748061</v>
       </c>
       <c r="K5" t="n">
+        <v>89377.9416748061</v>
+      </c>
+      <c r="L5" t="n">
         <v>89377.94167480612</v>
-      </c>
-      <c r="L5" t="n">
-        <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
+        <v>82518.59730624985</v>
+      </c>
+      <c r="O5" t="n">
         <v>82518.59730624984</v>
-      </c>
-      <c r="O5" t="n">
-        <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624985</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-173533.0244449158</v>
+        <v>-173537.438022784</v>
       </c>
       <c r="C6" t="n">
-        <v>-173533.0244449158</v>
+        <v>-173537.438022784</v>
       </c>
       <c r="D6" t="n">
-        <v>-297857.9696403112</v>
+        <v>-297862.1953941487</v>
       </c>
       <c r="E6" t="n">
-        <v>-741913.9342033223</v>
+        <v>-742132.3581507263</v>
       </c>
       <c r="F6" t="n">
-        <v>155594.8458206577</v>
+        <v>155376.4218732546</v>
       </c>
       <c r="G6" t="n">
-        <v>104668.291573116</v>
+        <v>104591.6177284224</v>
       </c>
       <c r="H6" t="n">
-        <v>142248.4008679898</v>
+        <v>142171.7270232963</v>
       </c>
       <c r="I6" t="n">
-        <v>77975.07607801649</v>
+        <v>77975.07607801676</v>
       </c>
       <c r="J6" t="n">
-        <v>101249.6555338956</v>
+        <v>101249.6555338964</v>
       </c>
       <c r="K6" t="n">
-        <v>144067.8868116384</v>
+        <v>144067.886811638</v>
       </c>
       <c r="L6" t="n">
-        <v>106487.7775167638</v>
+        <v>106487.7775167637</v>
       </c>
       <c r="M6" t="n">
         <v>-30736.38120392764</v>
       </c>
       <c r="N6" t="n">
-        <v>152123.9728128862</v>
+        <v>152123.9728128866</v>
       </c>
       <c r="O6" t="n">
-        <v>152123.9728128862</v>
+        <v>152123.9728128865</v>
       </c>
       <c r="P6" t="n">
-        <v>152123.9728128864</v>
+        <v>152123.9728128865</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="F2" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="G2" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="H2" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="I2" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="J2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="K2" t="n">
         <v>46.97513661859258</v>
       </c>
-      <c r="K2" t="n">
-        <v>46.97513661859259</v>
-      </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="N2" t="n">
+        <v>97.68472022810496</v>
+      </c>
+      <c r="O2" t="n">
+        <v>97.68472022810494</v>
+      </c>
+      <c r="P2" t="n">
         <v>97.68472022810504</v>
-      </c>
-      <c r="O2" t="n">
-        <v>97.68472022810502</v>
-      </c>
-      <c r="P2" t="n">
-        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="3">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>753.9237825884125</v>
+        <v>753.9237825884128</v>
       </c>
       <c r="F4" t="n">
-        <v>753.9237825884125</v>
+        <v>753.9237825884128</v>
       </c>
       <c r="G4" t="n">
-        <v>753.9237825884125</v>
+        <v>753.9237825884128</v>
       </c>
       <c r="H4" t="n">
-        <v>753.9237825884125</v>
+        <v>753.9237825884128</v>
       </c>
       <c r="I4" t="n">
-        <v>850.6857324407379</v>
+        <v>850.6857324407381</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
@@ -26823,7 +26823,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022926</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859275</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951241</v>
+        <v>50.70958360951231</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>234.7800381259942</v>
       </c>
       <c r="E3" t="n">
-        <v>791.7726710688567</v>
+        <v>791.7726710688571</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>63.22399139844742</v>
+        <v>63.22399139844674</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>753.9237825884125</v>
+        <v>753.9237825884128</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.76194985232542</v>
+        <v>96.7619498523253</v>
       </c>
       <c r="J4" t="n">
-        <v>163.6507287678764</v>
+        <v>163.6507287678762</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>570.9887767820907</v>
+        <v>570.9887767820911</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>753.9237825884125</v>
+        <v>753.9237825884128</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="C11" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="D11" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="E11" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="F11" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="G11" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="H11" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="I11" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="T11" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="U11" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="V11" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="W11" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="X11" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="Y11" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="D12" t="n">
-        <v>45.36398201445537</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.49937276245679</v>
+        <v>23.49937276245676</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,16 +28214,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>8.586294988847783</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>45.36398201445537</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>45.36398201445537</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -28235,7 +28235,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.785082854799612</v>
+        <v>18.37137784364646</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="C13" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="D13" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="E13" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="F13" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="G13" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="H13" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="I13" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="J13" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="K13" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="L13" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="M13" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="N13" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="O13" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="P13" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="R13" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="S13" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="T13" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="U13" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="V13" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="W13" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="X13" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
       <c r="Y13" t="n">
-        <v>45.36398201445537</v>
+        <v>45.36398201445531</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="C14" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="D14" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="E14" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="F14" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="G14" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="H14" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="I14" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="T14" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="U14" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="V14" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="W14" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="X14" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="Y14" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
     </row>
     <row r="15">
@@ -28406,25 +28406,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="G15" t="n">
-        <v>45.36398201445537</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>45.36398201445537</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.49937276245679</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,13 +28454,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>45.36398201445537</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>18.37137784364745</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -28469,10 +28469,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>41.87075060610428</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="C16" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="D16" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="E16" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="F16" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="G16" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="H16" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="I16" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="J16" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="K16" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="L16" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="M16" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="N16" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="O16" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="P16" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="R16" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="S16" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="T16" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="U16" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="V16" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="W16" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="X16" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
       <c r="Y16" t="n">
-        <v>45.36398201445537</v>
+        <v>45.3639820144552</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="C17" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="D17" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="E17" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="F17" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="G17" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="H17" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="I17" t="n">
-        <v>51.37569531418683</v>
+        <v>51.3756953141868</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="T17" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="U17" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="V17" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="W17" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="X17" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="Y17" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
     </row>
     <row r="18">
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -28652,16 +28652,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>16.57792289651954</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="H18" t="n">
-        <v>90.91026437190153</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.49937276245679</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28706,7 +28706,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>38.64844139782895</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="C19" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="D19" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="E19" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="F19" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="G19" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="H19" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="I19" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="J19" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="K19" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="L19" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="M19" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="N19" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="O19" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="P19" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="Q19" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="R19" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="S19" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="T19" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="U19" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="V19" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="W19" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="X19" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="Y19" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="C20" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="D20" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="E20" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="F20" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="G20" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="H20" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="I20" t="n">
-        <v>51.37569531418683</v>
+        <v>51.37569531418677</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="T20" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="U20" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="V20" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="W20" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="X20" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="Y20" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
     </row>
     <row r="21">
@@ -28883,22 +28883,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>40.077295658975</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>7.991627907671784</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="G21" t="n">
-        <v>92.33911863304795</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>90.91026437190153</v>
       </c>
       <c r="I21" t="n">
-        <v>23.49937276245679</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.586294988847783</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="C22" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="D22" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="E22" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="F22" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="G22" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="H22" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="I22" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="J22" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="K22" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="L22" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="M22" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="N22" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="O22" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="P22" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="Q22" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="R22" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="S22" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="T22" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="U22" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="V22" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="W22" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="X22" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="Y22" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="C23" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="D23" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="E23" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="F23" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="G23" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="H23" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29068,7 +29068,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>76.35794544515647</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -29080,31 +29080,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>76.35794544515912</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="T23" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="U23" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="V23" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="W23" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="X23" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="Y23" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="C25" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="D25" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="E25" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="F25" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="G25" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="H25" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="I25" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="J25" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="K25" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="L25" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="M25" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="N25" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="O25" t="n">
-        <v>5.508839130997018</v>
+        <v>5.508839130999831</v>
       </c>
       <c r="P25" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="Q25" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="R25" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="S25" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="T25" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="U25" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="V25" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="W25" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="X25" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="Y25" t="n">
-        <v>92.33911863304795</v>
+        <v>92.33911863304787</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="30">
@@ -29600,7 +29600,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>8.810729923425242e-13</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -29609,7 +29609,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="I32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="J32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="K32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="L32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="M32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="N32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="O32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="P32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="Q32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="R32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
     </row>
     <row r="33">
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859265</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30016,7 +30016,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="36">
@@ -30080,7 +30080,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -30128,7 +30128,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68472022810498</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>97.68472022810498</v>
+        <v>77.66073332242672</v>
       </c>
       <c r="P37" t="n">
-        <v>76.32843350415962</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="R37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="39">
@@ -30314,13 +30314,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="J40" t="n">
-        <v>76.32843350415867</v>
+        <v>76.3284335041598</v>
       </c>
       <c r="K40" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="R40" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30490,7 +30490,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="42">
@@ -30554,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68472022810502</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="K43" t="n">
-        <v>76.32843350415891</v>
+        <v>86.41330088048485</v>
       </c>
       <c r="L43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="R43" t="n">
-        <v>97.68472022810502</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810504</v>
       </c>
     </row>
     <row r="45">
@@ -30788,7 +30788,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68472022810502</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>76.32843350415902</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="P46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.68472022810502</v>
+        <v>77.66073332242561</v>
       </c>
       <c r="R46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810504</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.12684506208985</v>
+        <v>4.126845062089852</v>
       </c>
       <c r="H11" t="n">
-        <v>42.26405199212768</v>
+        <v>42.2640519921277</v>
       </c>
       <c r="I11" t="n">
         <v>159.1001942562191</v>
       </c>
       <c r="J11" t="n">
-        <v>350.2608160885487</v>
+        <v>350.2608160885488</v>
       </c>
       <c r="K11" t="n">
-        <v>524.9501675668122</v>
+        <v>524.9501675668124</v>
       </c>
       <c r="L11" t="n">
-        <v>651.2471021357445</v>
+        <v>651.2471021357447</v>
       </c>
       <c r="M11" t="n">
-        <v>724.6378830086849</v>
+        <v>724.6378830086852</v>
       </c>
       <c r="N11" t="n">
-        <v>736.3632815413476</v>
+        <v>736.363281541348</v>
       </c>
       <c r="O11" t="n">
-        <v>695.3269659551917</v>
+        <v>695.326965955192</v>
       </c>
       <c r="P11" t="n">
-        <v>593.4454784848484</v>
+        <v>593.4454784848486</v>
       </c>
       <c r="Q11" t="n">
-        <v>445.6528396987555</v>
+        <v>445.6528396987558</v>
       </c>
       <c r="R11" t="n">
-        <v>259.2329311315017</v>
+        <v>259.2329311315019</v>
       </c>
       <c r="S11" t="n">
-        <v>94.04048185237254</v>
+        <v>94.04048185237258</v>
       </c>
       <c r="T11" t="n">
         <v>18.06526425929833</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3301476049671879</v>
+        <v>0.330147604967188</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.208056770721</v>
+        <v>2.208056770721001</v>
       </c>
       <c r="H12" t="n">
         <v>21.32517986459493</v>
       </c>
       <c r="I12" t="n">
-        <v>76.02300723754321</v>
+        <v>76.02300723754324</v>
       </c>
       <c r="J12" t="n">
-        <v>208.612942535531</v>
+        <v>208.6129425355311</v>
       </c>
       <c r="K12" t="n">
-        <v>356.552746173838</v>
+        <v>356.5527461738382</v>
       </c>
       <c r="L12" t="n">
-        <v>479.4291685725576</v>
+        <v>479.4291685725577</v>
       </c>
       <c r="M12" t="n">
-        <v>559.4712265111937</v>
+        <v>559.4712265111939</v>
       </c>
       <c r="N12" t="n">
-        <v>574.2787651183535</v>
+        <v>574.2787651183537</v>
       </c>
       <c r="O12" t="n">
-        <v>525.352875619746</v>
+        <v>525.3528756197462</v>
       </c>
       <c r="P12" t="n">
-        <v>421.641998612504</v>
+        <v>421.6419986125042</v>
       </c>
       <c r="Q12" t="n">
-        <v>281.8565098906315</v>
+        <v>281.8565098906317</v>
       </c>
       <c r="R12" t="n">
         <v>137.0932089751162</v>
       </c>
       <c r="S12" t="n">
-        <v>41.01368607019048</v>
+        <v>41.0136860701905</v>
       </c>
       <c r="T12" t="n">
-        <v>8.90001829952894</v>
+        <v>8.900018299528943</v>
       </c>
       <c r="U12" t="n">
         <v>0.1452668928105922</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.851160623138255</v>
+        <v>1.851160623138256</v>
       </c>
       <c r="H13" t="n">
         <v>16.45850081299287</v>
       </c>
       <c r="I13" t="n">
-        <v>55.66944855764864</v>
+        <v>55.66944855764867</v>
       </c>
       <c r="J13" t="n">
-        <v>130.8770560558746</v>
+        <v>130.8770560558747</v>
       </c>
       <c r="K13" t="n">
-        <v>215.07120694279</v>
+        <v>215.0712069427901</v>
       </c>
       <c r="L13" t="n">
-        <v>275.2170984618458</v>
+        <v>275.2170984618459</v>
       </c>
       <c r="M13" t="n">
-        <v>290.1778420433903</v>
+        <v>290.1778420433905</v>
       </c>
       <c r="N13" t="n">
-        <v>283.2780615389661</v>
+        <v>283.2780615389663</v>
       </c>
       <c r="O13" t="n">
-        <v>261.6531397141237</v>
+        <v>261.6531397141238</v>
       </c>
       <c r="P13" t="n">
-        <v>223.8894630021031</v>
+        <v>223.8894630021032</v>
       </c>
       <c r="Q13" t="n">
         <v>155.0094590884225</v>
       </c>
       <c r="R13" t="n">
-        <v>83.23491310947099</v>
+        <v>83.23491310947104</v>
       </c>
       <c r="S13" t="n">
-        <v>32.26068104141849</v>
+        <v>32.26068104141851</v>
       </c>
       <c r="T13" t="n">
-        <v>7.909504480681635</v>
+        <v>7.909504480681639</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1009723976257231</v>
+        <v>0.1009723976257232</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.12684506208985</v>
+        <v>4.126845062089851</v>
       </c>
       <c r="H14" t="n">
-        <v>42.26405199212768</v>
+        <v>42.26405199212769</v>
       </c>
       <c r="I14" t="n">
         <v>159.1001942562191</v>
       </c>
       <c r="J14" t="n">
-        <v>350.2608160885487</v>
+        <v>350.2608160885488</v>
       </c>
       <c r="K14" t="n">
-        <v>524.9501675668122</v>
+        <v>524.9501675668123</v>
       </c>
       <c r="L14" t="n">
-        <v>651.2471021357445</v>
+        <v>651.2471021357446</v>
       </c>
       <c r="M14" t="n">
-        <v>724.6378830086849</v>
+        <v>724.637883008685</v>
       </c>
       <c r="N14" t="n">
-        <v>736.3632815413476</v>
+        <v>736.3632815413479</v>
       </c>
       <c r="O14" t="n">
-        <v>695.3269659551917</v>
+        <v>695.3269659551919</v>
       </c>
       <c r="P14" t="n">
-        <v>593.4454784848484</v>
+        <v>593.4454784848485</v>
       </c>
       <c r="Q14" t="n">
-        <v>445.6528396987555</v>
+        <v>445.6528396987557</v>
       </c>
       <c r="R14" t="n">
-        <v>259.2329311315017</v>
+        <v>259.2329311315018</v>
       </c>
       <c r="S14" t="n">
-        <v>94.04048185237254</v>
+        <v>94.04048185237257</v>
       </c>
       <c r="T14" t="n">
         <v>18.06526425929833</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3301476049671879</v>
+        <v>0.330147604967188</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>21.32517986459493</v>
       </c>
       <c r="I15" t="n">
-        <v>76.02300723754321</v>
+        <v>76.02300723754323</v>
       </c>
       <c r="J15" t="n">
-        <v>208.612942535531</v>
+        <v>208.6129425355311</v>
       </c>
       <c r="K15" t="n">
-        <v>356.552746173838</v>
+        <v>356.5527461738381</v>
       </c>
       <c r="L15" t="n">
         <v>479.4291685725576</v>
       </c>
       <c r="M15" t="n">
-        <v>559.4712265111937</v>
+        <v>559.4712265111938</v>
       </c>
       <c r="N15" t="n">
-        <v>574.2787651183535</v>
+        <v>574.2787651183536</v>
       </c>
       <c r="O15" t="n">
-        <v>525.352875619746</v>
+        <v>525.3528756197461</v>
       </c>
       <c r="P15" t="n">
-        <v>421.641998612504</v>
+        <v>421.6419986125041</v>
       </c>
       <c r="Q15" t="n">
-        <v>281.8565098906315</v>
+        <v>281.8565098906316</v>
       </c>
       <c r="R15" t="n">
         <v>137.0932089751162</v>
       </c>
       <c r="S15" t="n">
-        <v>41.01368607019048</v>
+        <v>41.01368607019049</v>
       </c>
       <c r="T15" t="n">
-        <v>8.90001829952894</v>
+        <v>8.900018299528941</v>
       </c>
       <c r="U15" t="n">
         <v>0.1452668928105922</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.851160623138255</v>
+        <v>1.851160623138256</v>
       </c>
       <c r="H16" t="n">
         <v>16.45850081299287</v>
       </c>
       <c r="I16" t="n">
-        <v>55.66944855764864</v>
+        <v>55.66944855764866</v>
       </c>
       <c r="J16" t="n">
-        <v>130.8770560558746</v>
+        <v>130.8770560558747</v>
       </c>
       <c r="K16" t="n">
         <v>215.07120694279</v>
       </c>
       <c r="L16" t="n">
-        <v>275.2170984618458</v>
+        <v>275.2170984618459</v>
       </c>
       <c r="M16" t="n">
-        <v>290.1778420433903</v>
+        <v>290.1778420433904</v>
       </c>
       <c r="N16" t="n">
-        <v>283.2780615389661</v>
+        <v>283.2780615389662</v>
       </c>
       <c r="O16" t="n">
-        <v>261.6531397141237</v>
+        <v>261.6531397141238</v>
       </c>
       <c r="P16" t="n">
-        <v>223.8894630021031</v>
+        <v>223.8894630021032</v>
       </c>
       <c r="Q16" t="n">
         <v>155.0094590884225</v>
       </c>
       <c r="R16" t="n">
-        <v>83.23491310947099</v>
+        <v>83.23491310947101</v>
       </c>
       <c r="S16" t="n">
-        <v>32.26068104141849</v>
+        <v>32.2606810414185</v>
       </c>
       <c r="T16" t="n">
-        <v>7.909504480681635</v>
+        <v>7.909504480681637</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1009723976257231</v>
+        <v>0.1009723976257232</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.12684506208985</v>
+        <v>4.126845062089851</v>
       </c>
       <c r="H17" t="n">
-        <v>42.26405199212768</v>
+        <v>42.26405199212769</v>
       </c>
       <c r="I17" t="n">
         <v>159.1001942562191</v>
       </c>
       <c r="J17" t="n">
-        <v>350.2608160885487</v>
+        <v>350.2608160885488</v>
       </c>
       <c r="K17" t="n">
-        <v>524.9501675668122</v>
+        <v>524.9501675668123</v>
       </c>
       <c r="L17" t="n">
-        <v>651.2471021357445</v>
+        <v>651.2471021357446</v>
       </c>
       <c r="M17" t="n">
-        <v>724.6378830086849</v>
+        <v>724.637883008685</v>
       </c>
       <c r="N17" t="n">
-        <v>736.3632815413476</v>
+        <v>736.3632815413479</v>
       </c>
       <c r="O17" t="n">
-        <v>695.3269659551917</v>
+        <v>695.3269659551919</v>
       </c>
       <c r="P17" t="n">
-        <v>593.4454784848484</v>
+        <v>593.4454784848485</v>
       </c>
       <c r="Q17" t="n">
-        <v>445.6528396987555</v>
+        <v>445.6528396987557</v>
       </c>
       <c r="R17" t="n">
-        <v>259.2329311315017</v>
+        <v>259.2329311315018</v>
       </c>
       <c r="S17" t="n">
-        <v>94.04048185237254</v>
+        <v>94.04048185237257</v>
       </c>
       <c r="T17" t="n">
         <v>18.06526425929833</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3301476049671879</v>
+        <v>0.330147604967188</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>21.32517986459493</v>
       </c>
       <c r="I18" t="n">
-        <v>76.02300723754321</v>
+        <v>76.02300723754323</v>
       </c>
       <c r="J18" t="n">
-        <v>208.612942535531</v>
+        <v>208.6129425355311</v>
       </c>
       <c r="K18" t="n">
-        <v>356.552746173838</v>
+        <v>356.5527461738381</v>
       </c>
       <c r="L18" t="n">
         <v>479.4291685725576</v>
       </c>
       <c r="M18" t="n">
-        <v>559.4712265111937</v>
+        <v>559.4712265111938</v>
       </c>
       <c r="N18" t="n">
-        <v>574.2787651183535</v>
+        <v>574.2787651183536</v>
       </c>
       <c r="O18" t="n">
-        <v>525.352875619746</v>
+        <v>525.3528756197461</v>
       </c>
       <c r="P18" t="n">
-        <v>421.641998612504</v>
+        <v>421.6419986125041</v>
       </c>
       <c r="Q18" t="n">
-        <v>281.8565098906315</v>
+        <v>281.8565098906316</v>
       </c>
       <c r="R18" t="n">
         <v>137.0932089751162</v>
       </c>
       <c r="S18" t="n">
-        <v>41.01368607019048</v>
+        <v>41.01368607019049</v>
       </c>
       <c r="T18" t="n">
-        <v>8.90001829952894</v>
+        <v>8.900018299528941</v>
       </c>
       <c r="U18" t="n">
         <v>0.1452668928105922</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.851160623138255</v>
+        <v>1.851160623138256</v>
       </c>
       <c r="H19" t="n">
         <v>16.45850081299287</v>
       </c>
       <c r="I19" t="n">
-        <v>55.66944855764864</v>
+        <v>55.66944855764866</v>
       </c>
       <c r="J19" t="n">
-        <v>130.8770560558746</v>
+        <v>130.8770560558747</v>
       </c>
       <c r="K19" t="n">
         <v>215.07120694279</v>
       </c>
       <c r="L19" t="n">
-        <v>275.2170984618458</v>
+        <v>275.2170984618459</v>
       </c>
       <c r="M19" t="n">
-        <v>290.1778420433903</v>
+        <v>290.1778420433904</v>
       </c>
       <c r="N19" t="n">
-        <v>283.2780615389661</v>
+        <v>283.2780615389662</v>
       </c>
       <c r="O19" t="n">
-        <v>261.6531397141237</v>
+        <v>261.6531397141238</v>
       </c>
       <c r="P19" t="n">
-        <v>223.8894630021031</v>
+        <v>223.8894630021032</v>
       </c>
       <c r="Q19" t="n">
         <v>155.0094590884225</v>
       </c>
       <c r="R19" t="n">
-        <v>83.23491310947099</v>
+        <v>83.23491310947101</v>
       </c>
       <c r="S19" t="n">
-        <v>32.26068104141849</v>
+        <v>32.2606810414185</v>
       </c>
       <c r="T19" t="n">
-        <v>7.909504480681635</v>
+        <v>7.909504480681637</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1009723976257231</v>
+        <v>0.1009723976257232</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.12684506208985</v>
+        <v>4.126845062089852</v>
       </c>
       <c r="H20" t="n">
-        <v>42.26405199212768</v>
+        <v>42.2640519921277</v>
       </c>
       <c r="I20" t="n">
         <v>159.1001942562191</v>
       </c>
       <c r="J20" t="n">
-        <v>350.2608160885487</v>
+        <v>350.2608160885488</v>
       </c>
       <c r="K20" t="n">
-        <v>524.9501675668122</v>
+        <v>524.9501675668124</v>
       </c>
       <c r="L20" t="n">
-        <v>651.2471021357445</v>
+        <v>651.2471021357447</v>
       </c>
       <c r="M20" t="n">
-        <v>724.6378830086849</v>
+        <v>724.6378830086852</v>
       </c>
       <c r="N20" t="n">
-        <v>736.3632815413476</v>
+        <v>736.363281541348</v>
       </c>
       <c r="O20" t="n">
-        <v>695.3269659551917</v>
+        <v>695.326965955192</v>
       </c>
       <c r="P20" t="n">
-        <v>593.4454784848484</v>
+        <v>593.4454784848486</v>
       </c>
       <c r="Q20" t="n">
-        <v>445.6528396987555</v>
+        <v>445.6528396987558</v>
       </c>
       <c r="R20" t="n">
-        <v>259.2329311315017</v>
+        <v>259.2329311315019</v>
       </c>
       <c r="S20" t="n">
-        <v>94.04048185237254</v>
+        <v>94.04048185237258</v>
       </c>
       <c r="T20" t="n">
         <v>18.06526425929833</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3301476049671879</v>
+        <v>0.330147604967188</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.208056770721</v>
+        <v>2.208056770721001</v>
       </c>
       <c r="H21" t="n">
         <v>21.32517986459493</v>
       </c>
       <c r="I21" t="n">
-        <v>76.02300723754321</v>
+        <v>76.02300723754324</v>
       </c>
       <c r="J21" t="n">
-        <v>208.612942535531</v>
+        <v>208.6129425355311</v>
       </c>
       <c r="K21" t="n">
-        <v>356.552746173838</v>
+        <v>356.5527461738382</v>
       </c>
       <c r="L21" t="n">
-        <v>479.4291685725576</v>
+        <v>479.4291685725577</v>
       </c>
       <c r="M21" t="n">
-        <v>559.4712265111937</v>
+        <v>559.4712265111939</v>
       </c>
       <c r="N21" t="n">
-        <v>574.2787651183535</v>
+        <v>574.2787651183537</v>
       </c>
       <c r="O21" t="n">
-        <v>525.352875619746</v>
+        <v>525.3528756197462</v>
       </c>
       <c r="P21" t="n">
-        <v>421.641998612504</v>
+        <v>421.6419986125042</v>
       </c>
       <c r="Q21" t="n">
-        <v>281.8565098906315</v>
+        <v>281.8565098906317</v>
       </c>
       <c r="R21" t="n">
         <v>137.0932089751162</v>
       </c>
       <c r="S21" t="n">
-        <v>41.01368607019048</v>
+        <v>41.0136860701905</v>
       </c>
       <c r="T21" t="n">
-        <v>8.90001829952894</v>
+        <v>8.900018299528943</v>
       </c>
       <c r="U21" t="n">
         <v>0.1452668928105922</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.851160623138255</v>
+        <v>1.851160623138256</v>
       </c>
       <c r="H22" t="n">
         <v>16.45850081299287</v>
       </c>
       <c r="I22" t="n">
-        <v>55.66944855764864</v>
+        <v>55.66944855764867</v>
       </c>
       <c r="J22" t="n">
-        <v>130.8770560558746</v>
+        <v>130.8770560558747</v>
       </c>
       <c r="K22" t="n">
-        <v>215.07120694279</v>
+        <v>215.0712069427901</v>
       </c>
       <c r="L22" t="n">
-        <v>275.2170984618458</v>
+        <v>275.2170984618459</v>
       </c>
       <c r="M22" t="n">
-        <v>290.1778420433903</v>
+        <v>290.1778420433905</v>
       </c>
       <c r="N22" t="n">
-        <v>283.2780615389661</v>
+        <v>283.2780615389663</v>
       </c>
       <c r="O22" t="n">
-        <v>261.6531397141237</v>
+        <v>261.6531397141238</v>
       </c>
       <c r="P22" t="n">
-        <v>223.8894630021031</v>
+        <v>223.8894630021032</v>
       </c>
       <c r="Q22" t="n">
         <v>155.0094590884225</v>
       </c>
       <c r="R22" t="n">
-        <v>83.23491310947099</v>
+        <v>83.23491310947104</v>
       </c>
       <c r="S22" t="n">
-        <v>32.26068104141849</v>
+        <v>32.26068104141851</v>
       </c>
       <c r="T22" t="n">
-        <v>7.909504480681635</v>
+        <v>7.909504480681639</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1009723976257231</v>
+        <v>0.1009723976257232</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34451,7 +34451,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233474</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.2149115618624</v>
+        <v>169.2149115618626</v>
       </c>
       <c r="K11" t="n">
-        <v>304.8603165218316</v>
+        <v>304.8603165218319</v>
       </c>
       <c r="L11" t="n">
-        <v>415.4806871657573</v>
+        <v>415.4806871657575</v>
       </c>
       <c r="M11" t="n">
-        <v>494.2916497814122</v>
+        <v>494.2916497814125</v>
       </c>
       <c r="N11" t="n">
-        <v>506.9502179447567</v>
+        <v>506.9502179447571</v>
       </c>
       <c r="O11" t="n">
-        <v>465.2287545335049</v>
+        <v>465.2287545335053</v>
       </c>
       <c r="P11" t="n">
-        <v>362.2124827295789</v>
+        <v>362.2124827295791</v>
       </c>
       <c r="Q11" t="n">
-        <v>223.3471498243061</v>
+        <v>223.3471498243063</v>
       </c>
       <c r="R11" t="n">
-        <v>43.64739331736962</v>
+        <v>43.64739331736973</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>81.77531586886431</v>
+        <v>81.7753158688644</v>
       </c>
       <c r="K12" t="n">
-        <v>218.711307199479</v>
+        <v>218.7113071994792</v>
       </c>
       <c r="L12" t="n">
-        <v>340.8747887926834</v>
+        <v>340.8747887926835</v>
       </c>
       <c r="M12" t="n">
-        <v>417.3371925891753</v>
+        <v>417.3371925891756</v>
       </c>
       <c r="N12" t="n">
-        <v>442.9370530350202</v>
+        <v>442.9370530350204</v>
       </c>
       <c r="O12" t="n">
-        <v>382.7566311753015</v>
+        <v>382.7566311753018</v>
       </c>
       <c r="P12" t="n">
-        <v>287.6675911981737</v>
+        <v>287.6675911981739</v>
       </c>
       <c r="Q12" t="n">
-        <v>141.87473580461</v>
+        <v>141.8747358046102</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,10 +35577,10 @@
         <v>375.1257010196863</v>
       </c>
       <c r="N13" t="n">
-        <v>372.7742159326501</v>
+        <v>372.7742159326502</v>
       </c>
       <c r="O13" t="n">
-        <v>331.6022496426187</v>
+        <v>331.6022496426188</v>
       </c>
       <c r="P13" t="n">
         <v>266.532004281452</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.2149115618624</v>
+        <v>169.2149115618625</v>
       </c>
       <c r="K14" t="n">
-        <v>304.8603165218316</v>
+        <v>304.8603165218317</v>
       </c>
       <c r="L14" t="n">
-        <v>415.4806871657573</v>
+        <v>415.4806871657574</v>
       </c>
       <c r="M14" t="n">
-        <v>494.2916497814122</v>
+        <v>494.2916497814123</v>
       </c>
       <c r="N14" t="n">
-        <v>506.9502179447567</v>
+        <v>506.950217944757</v>
       </c>
       <c r="O14" t="n">
-        <v>465.2287545335049</v>
+        <v>465.2287545335051</v>
       </c>
       <c r="P14" t="n">
-        <v>362.2124827295789</v>
+        <v>362.212482729579</v>
       </c>
       <c r="Q14" t="n">
-        <v>223.3471498243061</v>
+        <v>223.3471498243062</v>
       </c>
       <c r="R14" t="n">
-        <v>43.64739331736962</v>
+        <v>43.64739331736968</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>81.77531586886431</v>
+        <v>81.77531586886437</v>
       </c>
       <c r="K15" t="n">
-        <v>218.711307199479</v>
+        <v>218.7113071994791</v>
       </c>
       <c r="L15" t="n">
         <v>340.8747887926834</v>
       </c>
       <c r="M15" t="n">
-        <v>417.3371925891753</v>
+        <v>417.3371925891755</v>
       </c>
       <c r="N15" t="n">
-        <v>442.9370530350202</v>
+        <v>442.9370530350203</v>
       </c>
       <c r="O15" t="n">
-        <v>382.7566311753015</v>
+        <v>382.7566311753017</v>
       </c>
       <c r="P15" t="n">
-        <v>287.6675911981737</v>
+        <v>287.6675911981739</v>
       </c>
       <c r="Q15" t="n">
-        <v>141.87473580461</v>
+        <v>141.8747358046101</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>82.88185795365723</v>
+        <v>82.88185795365709</v>
       </c>
       <c r="K16" t="n">
-        <v>238.1656971313625</v>
+        <v>238.1656971313624</v>
       </c>
       <c r="L16" t="n">
-        <v>348.1711057366173</v>
+        <v>348.1711057366172</v>
       </c>
       <c r="M16" t="n">
-        <v>375.1257010196863</v>
+        <v>375.1257010196862</v>
       </c>
       <c r="N16" t="n">
-        <v>372.7742159326501</v>
+        <v>372.77421593265</v>
       </c>
       <c r="O16" t="n">
-        <v>331.6022496426187</v>
+        <v>331.6022496426186</v>
       </c>
       <c r="P16" t="n">
-        <v>266.532004281452</v>
+        <v>266.5320042814519</v>
       </c>
       <c r="Q16" t="n">
-        <v>114.2113978511835</v>
+        <v>114.2113978511833</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.2149115618624</v>
+        <v>169.2149115618625</v>
       </c>
       <c r="K17" t="n">
-        <v>304.8603165218316</v>
+        <v>304.8603165218317</v>
       </c>
       <c r="L17" t="n">
-        <v>415.4806871657573</v>
+        <v>415.4806871657574</v>
       </c>
       <c r="M17" t="n">
-        <v>494.2916497814122</v>
+        <v>494.2916497814123</v>
       </c>
       <c r="N17" t="n">
-        <v>506.9502179447567</v>
+        <v>506.950217944757</v>
       </c>
       <c r="O17" t="n">
-        <v>465.2287545335049</v>
+        <v>465.2287545335051</v>
       </c>
       <c r="P17" t="n">
-        <v>362.2124827295789</v>
+        <v>362.212482729579</v>
       </c>
       <c r="Q17" t="n">
-        <v>223.3471498243061</v>
+        <v>223.3471498243062</v>
       </c>
       <c r="R17" t="n">
-        <v>43.64739331736962</v>
+        <v>43.64739331736968</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>81.77531586886431</v>
+        <v>81.77531586886437</v>
       </c>
       <c r="K18" t="n">
-        <v>218.711307199479</v>
+        <v>218.7113071994791</v>
       </c>
       <c r="L18" t="n">
         <v>340.8747887926834</v>
       </c>
       <c r="M18" t="n">
-        <v>417.3371925891753</v>
+        <v>417.3371925891755</v>
       </c>
       <c r="N18" t="n">
-        <v>442.9370530350202</v>
+        <v>442.9370530350203</v>
       </c>
       <c r="O18" t="n">
-        <v>382.7566311753015</v>
+        <v>382.7566311753017</v>
       </c>
       <c r="P18" t="n">
-        <v>287.6675911981737</v>
+        <v>287.6675911981739</v>
       </c>
       <c r="Q18" t="n">
-        <v>141.87473580461</v>
+        <v>141.8747358046101</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>129.8569945722498</v>
+        <v>96.22075324952644</v>
       </c>
       <c r="K19" t="n">
         <v>178.3970674053026</v>
@@ -36054,13 +36054,13 @@
         <v>247.9316357067809</v>
       </c>
       <c r="O19" t="n">
-        <v>215.5357198953289</v>
+        <v>215.5357198953288</v>
       </c>
       <c r="P19" t="n">
-        <v>178.5005775860034</v>
+        <v>217.0367631563566</v>
       </c>
       <c r="Q19" t="n">
-        <v>100.7435203396534</v>
+        <v>95.84357609202455</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.2149115618624</v>
+        <v>169.2149115618626</v>
       </c>
       <c r="K20" t="n">
-        <v>304.8603165218316</v>
+        <v>304.8603165218319</v>
       </c>
       <c r="L20" t="n">
-        <v>415.4806871657573</v>
+        <v>415.4806871657575</v>
       </c>
       <c r="M20" t="n">
-        <v>494.2916497814122</v>
+        <v>494.2916497814125</v>
       </c>
       <c r="N20" t="n">
-        <v>506.9502179447567</v>
+        <v>506.9502179447571</v>
       </c>
       <c r="O20" t="n">
-        <v>465.2287545335049</v>
+        <v>465.2287545335053</v>
       </c>
       <c r="P20" t="n">
-        <v>362.2124827295789</v>
+        <v>362.2124827295791</v>
       </c>
       <c r="Q20" t="n">
-        <v>223.3471498243061</v>
+        <v>223.3471498243063</v>
       </c>
       <c r="R20" t="n">
-        <v>43.64739331736962</v>
+        <v>43.64739331736973</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>81.77531586886431</v>
+        <v>81.7753158688644</v>
       </c>
       <c r="K21" t="n">
-        <v>218.711307199479</v>
+        <v>218.7113071994792</v>
       </c>
       <c r="L21" t="n">
-        <v>340.8747887926834</v>
+        <v>340.8747887926835</v>
       </c>
       <c r="M21" t="n">
-        <v>417.3371925891753</v>
+        <v>417.3371925891756</v>
       </c>
       <c r="N21" t="n">
-        <v>442.9370530350202</v>
+        <v>442.9370530350204</v>
       </c>
       <c r="O21" t="n">
-        <v>382.7566311753015</v>
+        <v>382.7566311753018</v>
       </c>
       <c r="P21" t="n">
-        <v>287.6675911981737</v>
+        <v>287.6675911981739</v>
       </c>
       <c r="Q21" t="n">
-        <v>141.87473580461</v>
+        <v>141.8747358046102</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>96.22075324952648</v>
+        <v>96.22075324952647</v>
       </c>
       <c r="K22" t="n">
         <v>178.3970674053026</v>
       </c>
       <c r="L22" t="n">
-        <v>232.6715408136554</v>
+        <v>232.6715408136555</v>
       </c>
       <c r="M22" t="n">
-        <v>243.5911767288332</v>
+        <v>282.1273622991861</v>
       </c>
       <c r="N22" t="n">
         <v>247.9316357067809</v>
@@ -36294,10 +36294,10 @@
         <v>215.5357198953289</v>
       </c>
       <c r="P22" t="n">
-        <v>178.5005775860034</v>
+        <v>178.5005775860035</v>
       </c>
       <c r="Q22" t="n">
-        <v>134.3797616623769</v>
+        <v>95.84357609202458</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>615.2790612753832</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>327.1522502488785</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,31 +36513,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>104.2812939233908</v>
+        <v>104.2812939233907</v>
       </c>
       <c r="K25" t="n">
-        <v>191.643011832715</v>
+        <v>191.6430118327149</v>
       </c>
       <c r="L25" t="n">
-        <v>249.6217892616916</v>
+        <v>249.6217892616915</v>
       </c>
       <c r="M25" t="n">
-        <v>261.4628371170861</v>
+        <v>261.462837117086</v>
       </c>
       <c r="N25" t="n">
-        <v>265.3783479561263</v>
+        <v>265.3783479561261</v>
       </c>
       <c r="O25" t="n">
-        <v>144.8203029877543</v>
+        <v>144.8203029877571</v>
       </c>
       <c r="P25" t="n">
-        <v>192.2896264641173</v>
+        <v>192.2896264641171</v>
       </c>
       <c r="Q25" t="n">
-        <v>105.3903987931901</v>
+        <v>105.39039879319</v>
       </c>
       <c r="R25" t="n">
-        <v>3.406965963000616</v>
+        <v>3.40696596300053</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>5.398206845666607</v>
+        <v>5.398206845666579</v>
       </c>
       <c r="J26" t="n">
         <v>237.7621375873051</v>
@@ -36601,13 +36601,13 @@
         <v>502.5652510109245</v>
       </c>
       <c r="M26" t="n">
-        <v>585.896252448819</v>
+        <v>882.0705258951949</v>
       </c>
       <c r="N26" t="n">
         <v>599.2769720315039</v>
       </c>
       <c r="O26" t="n">
-        <v>851.2024109531876</v>
+        <v>555.0281375068116</v>
       </c>
       <c r="P26" t="n">
         <v>445.7371228379642</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165831</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36829,7 +36829,7 @@
         <v>5.398206845666607</v>
       </c>
       <c r="J29" t="n">
-        <v>406.8587527593788</v>
+        <v>237.7621375873051</v>
       </c>
       <c r="K29" t="n">
         <v>384.1664231739929</v>
@@ -36838,7 +36838,7 @@
         <v>502.5652510109245</v>
       </c>
       <c r="M29" t="n">
-        <v>585.896252448819</v>
+        <v>669.75553523529</v>
       </c>
       <c r="N29" t="n">
         <v>599.2769720315039</v>
@@ -36850,10 +36850,10 @@
         <v>445.7371228379642</v>
       </c>
       <c r="Q29" t="n">
-        <v>359.1306798236326</v>
+        <v>510.0844320822167</v>
       </c>
       <c r="R29" t="n">
-        <v>172.3047550337998</v>
+        <v>106.5883351608173</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629116</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>5.398206845666579</v>
+        <v>5.398206845666692</v>
       </c>
       <c r="J32" t="n">
-        <v>237.7621375873051</v>
+        <v>237.7621375873052</v>
       </c>
       <c r="K32" t="n">
-        <v>384.1664231739929</v>
+        <v>402.30928608748</v>
       </c>
       <c r="L32" t="n">
-        <v>502.5652510109245</v>
+        <v>502.5652510109248</v>
       </c>
       <c r="M32" t="n">
-        <v>585.896252448819</v>
+        <v>585.8962524488194</v>
       </c>
       <c r="N32" t="n">
-        <v>599.2769720315039</v>
+        <v>599.2769720315041</v>
       </c>
       <c r="O32" t="n">
-        <v>555.0281375068116</v>
+        <v>555.0281375068118</v>
       </c>
       <c r="P32" t="n">
-        <v>741.9113962843409</v>
+        <v>445.7371228379645</v>
       </c>
       <c r="Q32" t="n">
-        <v>297.769441422312</v>
+        <v>510.0844320822168</v>
       </c>
       <c r="R32" t="n">
-        <v>106.5883351608173</v>
+        <v>172.3047550337999</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165887</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629102</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120765</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.9322077637031</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302273</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129113</v>
@@ -37458,10 +37458,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.332299818266868</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6268955184478</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K37" t="n">
         <v>196.988613427772</v>
@@ -37470,22 +37470,22 @@
         <v>254.9673908567486</v>
       </c>
       <c r="M37" t="n">
-        <v>169.1237184840381</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N37" t="n">
         <v>173.0392293230782</v>
       </c>
       <c r="O37" t="n">
-        <v>236.9961840848623</v>
+        <v>216.972197179184</v>
       </c>
       <c r="P37" t="n">
-        <v>176.2789413352289</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q37" t="n">
         <v>110.7360003882471</v>
       </c>
       <c r="R37" t="n">
-        <v>8.752567558057635</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37695,34 +37695,34 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.332299818266925</v>
+        <v>1.332299818266854</v>
       </c>
       <c r="J40" t="n">
-        <v>88.27060879450153</v>
+        <v>88.27060879450266</v>
       </c>
       <c r="K40" t="n">
-        <v>196.988613427772</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L40" t="n">
-        <v>254.9673908567487</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M40" t="n">
-        <v>169.1237184840381</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N40" t="n">
-        <v>173.0392293230782</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O40" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P40" t="n">
-        <v>197.6352280591743</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q40" t="n">
-        <v>110.7360003882472</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R40" t="n">
-        <v>8.752567558057692</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302273</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129113</v>
@@ -37932,34 +37932,34 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.332299818266911</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034286</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K43" t="n">
-        <v>175.6323267038259</v>
+        <v>185.7171940801518</v>
       </c>
       <c r="L43" t="n">
-        <v>254.9673908567487</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M43" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N43" t="n">
-        <v>270.7239495511833</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O43" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P43" t="n">
-        <v>197.6352280591743</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.05128016014217</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R43" t="n">
-        <v>8.752567558057677</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013291</v>
@@ -38169,19 +38169,19 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.332299818266911</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034286</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K46" t="n">
-        <v>196.988613427772</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L46" t="n">
-        <v>233.6111041328027</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M46" t="n">
-        <v>169.1237184840381</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N46" t="n">
         <v>270.7239495511833</v>
@@ -38193,10 +38193,10 @@
         <v>197.6352280591743</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.7360003882472</v>
+        <v>90.71201348256778</v>
       </c>
       <c r="R46" t="n">
-        <v>8.752567558057677</v>
+        <v>8.752567558057692</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
